--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3340E83-B4A4-7D48-ADE1-6752F68BE5AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65C2406-7252-5C49-BEBC-171A384AC5DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -60,7 +60,31 @@
     <t>Reverse Linked List</t>
   </si>
   <si>
-    <t>Improve performance</t>
+    <t>Just binary search</t>
+  </si>
+  <si>
+    <t>Time/Memory Complexity</t>
+  </si>
+  <si>
+    <t>T: O(n)</t>
+  </si>
+  <si>
+    <t>M: O(n)</t>
+  </si>
+  <si>
+    <t>Make hashtable, add to it (value, 1) until u don’t get a duplicate, if u get a duplicate return True</t>
+  </si>
+  <si>
+    <t>T: O(logn)</t>
+  </si>
+  <si>
+    <t>M: O(1)</t>
+  </si>
+  <si>
+    <t>M: iter-O(1); rec-O(n)</t>
+  </si>
+  <si>
+    <t>Need 2 pointers prev and cur, and temp variable to hold cur.next</t>
   </si>
 </sst>
 </file>
@@ -114,15 +138,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -130,37 +160,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,372 +579,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="16"/>
+    <col min="8" max="8" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="10" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+    <row r="14" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="D1:F2"/>
+  <mergeCells count="16">
+    <mergeCell ref="H1:J2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65C2406-7252-5C49-BEBC-171A384AC5DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3F7E3D-7674-6443-9D14-6E84EB9C47A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -85,13 +85,130 @@
   </si>
   <si>
     <t>Need 2 pointers prev and cur, and temp variable to hold cur.next</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Tries</t>
+  </si>
+  <si>
+    <t>Heap / Priority Queue</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Advanced Graphs</t>
+  </si>
+  <si>
+    <t>1-D Dynamic Programming</t>
+  </si>
+  <si>
+    <t>2-D Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t>Math / Geometry</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Maximum subarray</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Bottom-up solution(every next val += sum(2next vals))</t>
+  </si>
+  <si>
+    <t>Bottom-up solution(starting from the end-3, every prev val = min(next1, next2) and return the min of cost(0, 1)</t>
+  </si>
+  <si>
+    <t>Min cost climbing stairs</t>
+  </si>
+  <si>
+    <t>u check if str.len is the same in both words else return false; then u make 2 hashmaps for w1, w2 and make key=letter, val=num how many times its appeared in the word; then u compare those hashmaps</t>
+  </si>
+  <si>
+    <t>make a hashmap where key=arr.val, value=arr.ind; loop through the array and  check if target-arr[i] in hashmap, if its -&gt; return (arr[i], hashmap[arr[i]]), else add arr[i] to hashmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make a hashmap where key=closep, value=openp; for each item in arr check if its in values, if its -&gt; add it to the stack; if its in keys then if stack.pop!=hashmap[item], if its -&gt; return false; if at the end stack is empty, return true, otherwise false</t>
+  </si>
+  <si>
+    <t>on each push -&gt; add min(minStack[-1], val) to minArr; do pop for both stack and minStack; top is stack[-1]; minVal is minStack[-1]</t>
+  </si>
+  <si>
+    <t>House robber 1</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>Treat matrix as 1 array, and calculate row as mid // width and col as mid % width</t>
+  </si>
+  <si>
+    <t>Koko eating bananas</t>
+  </si>
+  <si>
+    <t>T: O(log(max(p)p)</t>
+  </si>
+  <si>
+    <t>Binary search in range 1, max(piles); k=mid; we take keep track of how much hrs has been used at each iteration for pile; if left hors go under 0 -&gt; we set left to k+1; if left hours &gt;= 0 -&gt; we save solution as min(res, k) and make right = k-1</t>
+  </si>
+  <si>
+    <t>Search rotated sorted array</t>
+  </si>
+  <si>
+    <t>First find pivot(lowest element using binary search), then do normal binary search for left=-(n-pivot), right=n+left-1</t>
+  </si>
+  <si>
+    <t>T: (2logn)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,8 +254,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +283,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -189,49 +333,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -247,23 +457,192 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,424 +958,881 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="16"/>
-    <col min="8" max="8" width="10.83203125" style="16"/>
+    <col min="4" max="4" width="10.83203125" style="8"/>
+    <col min="8" max="8" width="10.83203125" style="8"/>
+    <col min="17" max="17" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" ht="26" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="26" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+    <row r="5" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+    </row>
+    <row r="6" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69">
+        <v>1</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+    </row>
+    <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>2</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="62"/>
+    </row>
+    <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B16" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="16" t="s">
+      <c r="G16" s="44"/>
+      <c r="H16" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    <row r="17" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="49"/>
+    </row>
+    <row r="18" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>3</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="77"/>
+      <c r="H18" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="62"/>
+    </row>
+    <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72">
+        <v>4</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="74"/>
+      <c r="F19" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="75"/>
+      <c r="H19" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="62"/>
+    </row>
+    <row r="20" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B21" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="E21" s="65"/>
+      <c r="F21" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="16" t="s">
+      <c r="G21" s="65"/>
+      <c r="H21" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="19"/>
+    <row r="22" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="19"/>
+    <row r="24" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="19"/>
+    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="19"/>
+    <row r="27" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="19"/>
+    <row r="29" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="19"/>
+    <row r="30" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="19"/>
+    <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="19"/>
+    <row r="33" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="19"/>
+    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="19"/>
+    <row r="36" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A36" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="19"/>
+    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:17" s="26" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>1</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="64"/>
+      <c r="F43" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="56"/>
+      <c r="H43" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q43" s="27"/>
+    </row>
+    <row r="44" spans="1:17" s="26" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>2</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="27"/>
+    </row>
+    <row r="45" spans="1:17" s="26" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
+        <v>3</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="27"/>
+      <c r="Q45" s="27"/>
+    </row>
+    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A46" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A49" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <v>1</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="36"/>
+    </row>
+    <row r="51" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A52" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="58" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A58" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+    </row>
+    <row r="59" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="62">
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="H1:J2"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H5:P5"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3F7E3D-7674-6443-9D14-6E84EB9C47A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1FEEB1-7FD6-B045-9010-2EEB6BA860CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -202,6 +202,33 @@
   </si>
   <si>
     <t>T: (2logn)</t>
+  </si>
+  <si>
+    <t>Merge 2 linked lists</t>
+  </si>
+  <si>
+    <t>T: O(n+m)</t>
+  </si>
+  <si>
+    <t>M: (n+m)</t>
+  </si>
+  <si>
+    <t>Add max(list1.val, list2.val) to result_list, change tail to tail.next, change listX to listX.next (X -&gt; list chosen from max func); when 1 of the lists ends, add the other to to tail.next; return result_list.next</t>
+  </si>
+  <si>
+    <t>Reorder linked list</t>
+  </si>
+  <si>
+    <t>Invery Binary Tree</t>
+  </si>
+  <si>
+    <t>Get middle of the list; reverse second half of the list; merge list1 with list2 by changing positions of lists on each iteration(list1.next = second, list2.next = tmp_first)</t>
+  </si>
+  <si>
+    <t>Remove nth from node</t>
+  </si>
+  <si>
+    <t>Add dummy node at the start of the list; init left to start of the list, init right to start+n); get to the end of the list shifting left and right by 1; make left.next = left.next.next</t>
   </si>
 </sst>
 </file>
@@ -425,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -437,12 +464,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -454,9 +475,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -506,35 +524,113 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,14 +638,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -560,64 +659,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,23 +680,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,84 +1015,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="8"/>
-    <col min="8" max="8" width="10.83203125" style="8"/>
-    <col min="17" max="17" width="10.83203125" style="8"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
+    <col min="8" max="8" width="10.83203125" style="6"/>
+    <col min="17" max="17" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="42" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="4"/>
@@ -1047,402 +1104,453 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="44" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="70"/>
+      <c r="D6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="44" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="8" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69">
+      <c r="A13" s="29">
         <v>1</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="59" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="58" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="14">
         <v>2</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="62"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="A16" s="14">
         <v>1</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="44" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="55"/>
+      <c r="F16" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="14">
         <v>2</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="49"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="73"/>
     </row>
     <row r="18" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="A18" s="14">
         <v>3</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="76" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="66" t="s">
+      <c r="E18" s="46"/>
+      <c r="F18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="45" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="62"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+      <c r="A19" s="30">
         <v>4</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="73" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="68" t="s">
+      <c r="E19" s="48"/>
+      <c r="F19" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="45" t="s">
+      <c r="G19" s="50"/>
+      <c r="H19" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="62"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="41"/>
     </row>
     <row r="20" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="85">
         <v>1</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="65" t="s">
+      <c r="C21" s="87"/>
+      <c r="D21" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65" t="s">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="11"/>
+    <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
+        <v>2</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="80"/>
+      <c r="D22" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="63"/>
+      <c r="F22" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
+    </row>
+    <row r="23" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>3</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="H23" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="41"/>
+    </row>
+    <row r="24" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="34">
+        <v>4</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="41"/>
+    </row>
+    <row r="25" spans="1:16" ht="26" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="31">
+        <v>1</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="78"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" ht="26" x14ac:dyDescent="0.25">
+      <c r="A28" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
@@ -1450,29 +1558,29 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="26" x14ac:dyDescent="0.25">
+      <c r="A31" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="11"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
@@ -1480,29 +1588,29 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="11"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A34" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
@@ -1510,63 +1618,63 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="11"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A37" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
-        <v>1</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="19">
+        <v>1</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="82"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A40" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
@@ -1574,100 +1682,100 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="11"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:17" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A43" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:17" s="26" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+      <c r="B43" s="68"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="60"/>
+      <c r="H43" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q43" s="24"/>
+    </row>
+    <row r="44" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
         <v>1</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B44" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="63" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="55" t="s">
+      <c r="E44" s="58"/>
+      <c r="F44" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="56"/>
-      <c r="H43" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q43" s="27"/>
-    </row>
-    <row r="44" spans="1:17" s="26" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="G44" s="61"/>
+      <c r="H44" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="24"/>
+    </row>
+    <row r="45" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
         <v>2</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B45" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q44" s="27"/>
-    </row>
-    <row r="45" spans="1:17" s="26" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="24"/>
+      <c r="Q45" s="24"/>
+    </row>
+    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
         <v>3</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B46" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="27"/>
-      <c r="Q45" s="27"/>
-    </row>
-    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A46" s="32" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A47" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="11"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
@@ -1675,122 +1783,139 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="11"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A49" s="32" t="s">
+    <row r="49" spans="1:10" ht="26" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A50" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
+      <c r="B50" s="68"/>
+      <c r="C50" s="74"/>
+    </row>
+    <row r="51" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
         <v>1</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B51" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="36"/>
-    </row>
-    <row r="51" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A52" s="32" t="s">
+      <c r="C51" s="78"/>
+    </row>
+    <row r="52" spans="1:10" ht="26" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A53" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-    </row>
-    <row r="53" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="74"/>
     </row>
     <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A55" s="32" t="s">
+    <row r="55" spans="1:10" ht="26" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A56" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="74"/>
     </row>
     <row r="58" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A58" s="32" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A59" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-    </row>
-    <row r="59" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="74"/>
     </row>
     <row r="60" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
+    <row r="61" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
+  <mergeCells count="71">
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="H1:J2"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="A3:C3"/>
@@ -1807,32 +1932,31 @@
     <mergeCell ref="H5:P5"/>
     <mergeCell ref="H17:P17"/>
     <mergeCell ref="H6:P6"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="H24:P24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1FEEB1-7FD6-B045-9010-2EEB6BA860CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF986F2-EFE1-7B4A-8DCD-D0BC6AB21EAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Reorder linked list</t>
   </si>
   <si>
-    <t>Invery Binary Tree</t>
-  </si>
-  <si>
     <t>Get middle of the list; reverse second half of the list; merge list1 with list2 by changing positions of lists on each iteration(list1.next = second, list2.next = tmp_first)</t>
   </si>
   <si>
@@ -229,6 +226,92 @@
   </si>
   <si>
     <t>Add dummy node at the start of the list; init left to start of the list, init right to start+n); get to the end of the list shifting left and right by 1; make left.next = left.next.next</t>
+  </si>
+  <si>
+    <t>if root=None, return None; swap root.left with root.right; recursively call self for root.left, rootl.righh</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 main approaches(rec_dfs, it_dfs, it_bfs). In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rec_dfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, base case: if not root: return 0; in rec case return 1 + max(rec_dfs(root.left), rec_dfs(root.right)). In</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it_dfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, add to stack [root, d=1] then [root.left, d+=1], [root.right, d+=1], res = max(res, d of cur node). In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">it_bfs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make q., while q, popleft, if node.left/right append(node.left/right), res+=1.</t>
+    </r>
+  </si>
+  <si>
+    <t>Max depth of a B.T</t>
+  </si>
+  <si>
+    <t>Invert B.T</t>
+  </si>
+  <si>
+    <t>make global var. res; make nested dfs search func, get height(2+left+right), make res=max(res, height), use that dfs func on root, return res</t>
+  </si>
+  <si>
+    <t>Balanced B.T</t>
+  </si>
+  <si>
+    <t>Diameter of B.T</t>
   </si>
 </sst>
 </file>
@@ -297,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,57 +607,125 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,33 +753,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,6 +798,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -674,31 +828,37 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,43 +1191,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="65" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -1080,18 +1240,18 @@
       <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1107,57 +1267,57 @@
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="53" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="39" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
       <c r="Q6" s="6" t="s">
         <v>44</v>
       </c>
@@ -1171,11 +1331,11 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1197,11 +1357,11 @@
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1223,11 +1383,11 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1237,63 +1397,63 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="27">
         <v>1</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38" t="s">
+      <c r="E13" s="66"/>
+      <c r="F13" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="35" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="8"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="41"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="69"/>
     </row>
     <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1306,18 +1466,18 @@
       <c r="A16" s="14">
         <v>1</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="55" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55" t="s">
+      <c r="E16" s="62"/>
+      <c r="F16" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="55"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="6" t="s">
         <v>8</v>
       </c>
@@ -1326,87 +1486,92 @@
       <c r="A17" s="14">
         <v>2</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="H17" s="71" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="73"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
     </row>
     <row r="18" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>3</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="45" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="51" t="s">
+      <c r="E18" s="74"/>
+      <c r="F18" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="39" t="s">
+      <c r="G18" s="80"/>
+      <c r="H18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="41"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="69"/>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="28">
         <v>4</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="47" t="s">
+      <c r="C19" s="91"/>
+      <c r="D19" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49" t="s">
+      <c r="E19" s="76"/>
+      <c r="F19" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="39" t="s">
+      <c r="G19" s="78"/>
+      <c r="H19" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="41"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="69"/>
     </row>
     <row r="20" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1416,493 +1581,689 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85">
+      <c r="A21" s="36">
         <v>1</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="44" t="s">
+      <c r="C21" s="99"/>
+      <c r="D21" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44" t="s">
+      <c r="E21" s="72"/>
+      <c r="F21" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32">
+      <c r="A22" s="29">
         <v>2</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="62" t="s">
+      <c r="C22" s="101"/>
+      <c r="D22" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="44" t="s">
+      <c r="E22" s="84"/>
+      <c r="F22" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="39" t="s">
+      <c r="G22" s="85"/>
+      <c r="H22" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="41"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="69"/>
     </row>
     <row r="23" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="30">
         <v>3</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="70"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="9"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="69"/>
+    </row>
+    <row r="24" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31">
+        <v>4</v>
+      </c>
+      <c r="B24" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="41"/>
-    </row>
-    <row r="24" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34">
+      <c r="C24" s="102"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="69"/>
+    </row>
+    <row r="25" spans="1:16" ht="26" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+    </row>
+    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="35">
+        <v>1</v>
+      </c>
+      <c r="B26" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="103"/>
+      <c r="D26" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="84"/>
+      <c r="F26" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56"/>
+    </row>
+    <row r="27" spans="1:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="34">
+        <v>2</v>
+      </c>
+      <c r="B27" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="103"/>
+      <c r="D27" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="84"/>
+      <c r="F27" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="84"/>
+      <c r="H27" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="59"/>
+    </row>
+    <row r="28" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="54">
+        <v>3</v>
+      </c>
+      <c r="B28" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="113"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="111"/>
+    </row>
+    <row r="29" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37">
         <v>4</v>
       </c>
-      <c r="B24" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="41"/>
-    </row>
-    <row r="25" spans="1:16" ht="26" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>1</v>
-      </c>
-      <c r="B26" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" ht="26" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
+      <c r="B29" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="116"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="114"/>
+    </row>
+    <row r="30" spans="1:16" ht="26" x14ac:dyDescent="0.25">
+      <c r="A30" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" ht="26" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="74"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A33" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+    </row>
+    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+    </row>
+    <row r="35" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+    </row>
+    <row r="36" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A36" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+    </row>
+    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+    </row>
+    <row r="38" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+    </row>
+    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A39" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+    </row>
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
         <v>1</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B40" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="C40" s="108"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+    </row>
+    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:17" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A43" s="68" t="s">
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+    </row>
+    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A42" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+    </row>
+    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+    </row>
+    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+    </row>
+    <row r="45" spans="1:17" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A45" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="42" t="s">
+      <c r="B45" s="89"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="59" t="s">
+      <c r="E45" s="71"/>
+      <c r="F45" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="24" t="s">
+      <c r="G45" s="82"/>
+      <c r="H45" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Q43" s="24"/>
-    </row>
-    <row r="44" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="Q45" s="24"/>
+    </row>
+    <row r="46" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
         <v>1</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B46" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="57" t="s">
+      <c r="C46" s="105"/>
+      <c r="D46" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58" t="s">
+      <c r="E46" s="71"/>
+      <c r="F46" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="61"/>
-      <c r="H44" s="24" t="s">
+      <c r="G46" s="82"/>
+      <c r="H46" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Q44" s="24"/>
-    </row>
-    <row r="45" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
+      <c r="Q46" s="24"/>
+    </row>
+    <row r="47" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
         <v>2</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B47" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="24"/>
-      <c r="Q45" s="24"/>
-    </row>
-    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
+      <c r="C47" s="26"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="Q47" s="24"/>
+    </row>
+    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
         <v>3</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B48" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A47" s="68" t="s">
+      <c r="C48" s="21"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="40"/>
+    </row>
+    <row r="49" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A49" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="26" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A50" s="68" t="s">
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+    </row>
+    <row r="50" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+    </row>
+    <row r="51" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="40"/>
+    </row>
+    <row r="52" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A52" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="74"/>
-    </row>
-    <row r="51" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
         <v>1</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B53" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="78"/>
-    </row>
-    <row r="52" spans="1:10" ht="26" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A53" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="74"/>
-    </row>
-    <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="C53" s="106"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+    </row>
+    <row r="54" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" ht="26" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A56" s="68" t="s">
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="40"/>
+    </row>
+    <row r="55" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A55" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+    </row>
+    <row r="56" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+    </row>
+    <row r="57" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="40"/>
+    </row>
+    <row r="58" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A58" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="74"/>
-    </row>
-    <row r="58" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A59" s="68" t="s">
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+    </row>
+    <row r="60" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+    </row>
+    <row r="61" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A61" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="74"/>
-    </row>
-    <row r="60" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="95"/>
+    </row>
+    <row r="62" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="A59:C59"/>
+  <mergeCells count="83">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A61:C61"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A42:C42"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A8:C8"/>
@@ -1916,6 +2277,8 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="H1:J2"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="A3:C3"/>
@@ -1936,16 +2299,16 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="D18:E18"/>
@@ -1957,6 +2320,15 @@
     <mergeCell ref="H22:P22"/>
     <mergeCell ref="H23:P23"/>
     <mergeCell ref="H24:P24"/>
+    <mergeCell ref="H28:P28"/>
+    <mergeCell ref="H26:P26"/>
+    <mergeCell ref="H27:P27"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H14:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF986F2-EFE1-7B4A-8DCD-D0BC6AB21EAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5045D42B-EE96-9B44-BF4D-38B72143174A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -72,9 +72,6 @@
     <t>M: O(n)</t>
   </si>
   <si>
-    <t>Make hashtable, add to it (value, 1) until u don’t get a duplicate, if u get a duplicate return True</t>
-  </si>
-  <si>
     <t>T: O(logn)</t>
   </si>
   <si>
@@ -160,12 +157,6 @@
   </si>
   <si>
     <t>Min cost climbing stairs</t>
-  </si>
-  <si>
-    <t>u check if str.len is the same in both words else return false; then u make 2 hashmaps for w1, w2 and make key=letter, val=num how many times its appeared in the word; then u compare those hashmaps</t>
-  </si>
-  <si>
-    <t>make a hashmap where key=arr.val, value=arr.ind; loop through the array and  check if target-arr[i] in hashmap, if its -&gt; return (arr[i], hashmap[arr[i]]), else add arr[i] to hashmap</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -312,6 +303,24 @@
   </si>
   <si>
     <t>Diameter of B.T</t>
+  </si>
+  <si>
+    <t>Make hashtable, add to it (value, index) until u don’t get a duplicate, if u get a duplicate return True</t>
+  </si>
+  <si>
+    <t>u check if str.len is the same in both words else return false; then u make 2 hashmaps for w1, w2 and make key=char, val=count; then u compare those hashmaps</t>
+  </si>
+  <si>
+    <t>make a hashmap where key=num, value=ind; loop through the array, if cur num not in hashmap - add it, check if target-num in hashmap, if its -&gt; return (ind, hashmap[target-num])</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>T: O(n*m)</t>
+  </si>
+  <si>
+    <t>M: O(n*m)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -675,6 +684,162 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -690,18 +855,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -711,154 +864,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,43 +1221,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="86" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -1240,20 +1270,20 @@
       <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="5" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1267,87 +1297,91 @@
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
+      <c r="B5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="85"/>
+      <c r="F5" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="86"/>
+      <c r="H5" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
     </row>
     <row r="6" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="60" t="s">
+      <c r="B6" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
       <c r="Q6" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="121">
+        <v>4</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="123"/>
       <c r="D7" s="7"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -1357,11 +1391,9 @@
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1371,9 +1403,11 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="17"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -1383,11 +1417,9 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="95"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1397,63 +1429,63 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
+      <c r="A13" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="114"/>
+      <c r="H13" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+    </row>
+    <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>1</v>
       </c>
-      <c r="B13" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-    </row>
-    <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="91"/>
+      <c r="B14" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="61"/>
       <c r="D14" s="8"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="69"/>
+      <c r="H14" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="97"/>
     </row>
     <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A15" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
+      <c r="A15" s="14">
+        <v>2</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="63"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1463,115 +1495,115 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>1</v>
-      </c>
-      <c r="B16" s="90" t="s">
+      <c r="A16" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="62" t="s">
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
-        <v>2</v>
-      </c>
-      <c r="B17" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="83"/>
     </row>
     <row r="18" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
+        <v>2</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="96"/>
+      <c r="F18" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="103"/>
+      <c r="H18" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="97"/>
+    </row>
+    <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>3</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B19" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="101"/>
+      <c r="H19" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="97"/>
+    </row>
+    <row r="20" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="A20" s="28">
+        <v>4</v>
+      </c>
+      <c r="B20" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="69"/>
-    </row>
-    <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>4</v>
-      </c>
-      <c r="B19" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="69"/>
-    </row>
-    <row r="20" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1581,106 +1613,106 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36">
+      <c r="A21" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="93"/>
+      <c r="H21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="36">
         <v>1</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B22" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="C22" s="71"/>
+      <c r="D22" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="94"/>
+      <c r="H22" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="97"/>
+    </row>
+    <row r="23" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
         <v>2</v>
       </c>
-      <c r="B22" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="85"/>
-      <c r="H22" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="69"/>
-    </row>
-    <row r="23" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>3</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="91"/>
+      <c r="B23" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="61"/>
       <c r="D23" s="9"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="69"/>
+      <c r="H23" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="97"/>
     </row>
     <row r="24" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
-        <v>4</v>
-      </c>
-      <c r="B24" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="102"/>
+      <c r="A24" s="30">
+        <v>3</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="63"/>
       <c r="D24" s="41"/>
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="44"/>
-      <c r="H24" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="69"/>
-    </row>
-    <row r="25" spans="1:16" ht="26" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
+      <c r="H24" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="97"/>
+    </row>
+    <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>4</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="72"/>
       <c r="D25" s="45"/>
       <c r="E25" s="46"/>
       <c r="F25" s="46"/>
@@ -1689,94 +1721,92 @@
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
     </row>
-    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+    <row r="26" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="92"/>
+      <c r="F26" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="94"/>
+      <c r="H26" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="108"/>
+    </row>
+    <row r="27" spans="1:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35">
         <v>1</v>
       </c>
-      <c r="B26" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="83" t="s">
+      <c r="B27" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="85"/>
-      <c r="H26" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56"/>
-    </row>
-    <row r="27" spans="1:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34">
+      <c r="E27" s="92"/>
+      <c r="F27" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="92"/>
+      <c r="H27" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="111"/>
+    </row>
+    <row r="28" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="34">
         <v>2</v>
       </c>
-      <c r="B27" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="59"/>
-    </row>
-    <row r="28" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54">
-        <v>3</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="113"/>
+      <c r="B28" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="73"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="111"/>
+      <c r="H28" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
-        <v>4</v>
-      </c>
-      <c r="B29" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="116"/>
+      <c r="A29" s="54">
+        <v>3</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="75"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
@@ -1789,14 +1819,16 @@
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
       <c r="O29" s="52"/>
-      <c r="P29" s="114"/>
-    </row>
-    <row r="30" spans="1:16" ht="26" x14ac:dyDescent="0.25">
-      <c r="A30" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="95"/>
+      <c r="P29" s="55"/>
+    </row>
+    <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
+        <v>4</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="57"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
@@ -1811,10 +1843,12 @@
       <c r="O30" s="49"/>
       <c r="P30" s="47"/>
     </row>
-    <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+    <row r="31" spans="1:16" ht="26" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="9"/>
       <c r="E31" s="43"/>
       <c r="F31" s="43"/>
@@ -1835,12 +1869,10 @@
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
     </row>
-    <row r="33" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
+    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
@@ -1849,10 +1881,12 @@
       <c r="I33" s="40"/>
       <c r="J33" s="40"/>
     </row>
-    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+    <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="43"/>
@@ -1873,12 +1907,10 @@
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
     </row>
-    <row r="36" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
+    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
@@ -1887,10 +1919,12 @@
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
     </row>
-    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+    <row r="37" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
@@ -1911,12 +1945,10 @@
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
     </row>
-    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
+    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
@@ -1925,14 +1957,12 @@
       <c r="I39" s="40"/>
       <c r="J39" s="40"/>
     </row>
-    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
-        <v>1</v>
-      </c>
-      <c r="B40" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="108"/>
+    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="43"/>
@@ -1942,9 +1972,13 @@
       <c r="J40" s="40"/>
     </row>
     <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="19">
+        <v>1</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="69"/>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
@@ -1953,12 +1987,10 @@
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
     </row>
-    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A42" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
+    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
@@ -1967,10 +1999,12 @@
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -1991,54 +2025,50 @@
       <c r="I44" s="42"/>
       <c r="J44" s="42"/>
     </row>
-    <row r="45" spans="1:17" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A45" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="70" t="s">
+    <row r="45" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="82"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="90"/>
       <c r="H45" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q45" s="24"/>
+    </row>
+    <row r="46" spans="1:17" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A46" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="90"/>
+      <c r="H46" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Q45" s="24"/>
-    </row>
-    <row r="46" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="Q46" s="24"/>
+    </row>
+    <row r="47" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
         <v>1</v>
       </c>
-      <c r="B46" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="82"/>
-      <c r="H46" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q46" s="24"/>
-    </row>
-    <row r="47" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
-        <v>2</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="26"/>
+      <c r="B47" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="66"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
@@ -2050,13 +2080,13 @@
       <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
-        <v>3</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="21"/>
+      <c r="A48" s="25">
+        <v>2</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="26"/>
       <c r="D48" s="42"/>
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
@@ -2066,12 +2096,14 @@
       <c r="J48" s="42"/>
       <c r="K48" s="40"/>
     </row>
-    <row r="49" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A49" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
+    <row r="49" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>3</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="21"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="43"/>
@@ -2081,10 +2113,12 @@
       <c r="J49" s="40"/>
       <c r="K49" s="40"/>
     </row>
-    <row r="50" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+    <row r="50" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A50" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="43"/>
@@ -2107,12 +2141,10 @@
       <c r="J51" s="42"/>
       <c r="K51" s="40"/>
     </row>
-    <row r="52" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A52" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
+    <row r="52" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
@@ -2122,14 +2154,12 @@
       <c r="J52" s="40"/>
       <c r="K52" s="40"/>
     </row>
-    <row r="53" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
-        <v>1</v>
-      </c>
-      <c r="B53" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="106"/>
+    <row r="53" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A53" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
       <c r="F53" s="40"/>
@@ -2140,9 +2170,13 @@
       <c r="K53" s="40"/>
     </row>
     <row r="54" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="21">
+        <v>1</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="67"/>
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
@@ -2152,12 +2186,10 @@
       <c r="J54" s="42"/>
       <c r="K54" s="40"/>
     </row>
-    <row r="55" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A55" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
+    <row r="55" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
       <c r="F55" s="40"/>
@@ -2167,10 +2199,12 @@
       <c r="J55" s="40"/>
       <c r="K55" s="40"/>
     </row>
-    <row r="56" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+    <row r="56" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A56" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
@@ -2193,12 +2227,10 @@
       <c r="J57" s="42"/>
       <c r="K57" s="40"/>
     </row>
-    <row r="58" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A58" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
+    <row r="58" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
       <c r="F58" s="40"/>
@@ -2208,7 +2240,12 @@
       <c r="J58" s="40"/>
       <c r="K58" s="40"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A59" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
       <c r="F59" s="40"/>
@@ -2227,78 +2264,50 @@
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
     </row>
-    <row r="61" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A61" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="95"/>
-    </row>
-    <row r="62" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+    <row r="62" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A62" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="58"/>
+      <c r="C62" s="59"/>
     </row>
     <row r="63" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
+    <row r="64" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H1:J2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H5:P5"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="H6:P6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
+  <mergeCells count="84">
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="H24:P24"/>
+    <mergeCell ref="H28:P28"/>
+    <mergeCell ref="H26:P26"/>
+    <mergeCell ref="H27:P27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="F46:G46"/>
@@ -2309,26 +2318,55 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H22:P22"/>
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="H24:P24"/>
-    <mergeCell ref="H28:P28"/>
-    <mergeCell ref="H26:P26"/>
-    <mergeCell ref="H27:P27"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H1:J2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H5:P5"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5045D42B-EE96-9B44-BF4D-38B72143174A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3718A6DF-72EA-9748-BE70-C53ECD71DABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -321,6 +321,18 @@
   </si>
   <si>
     <t>M: O(n*m)</t>
+  </si>
+  <si>
+    <t>T: O(m*n*26)</t>
+  </si>
+  <si>
+    <t>M: O(m)</t>
+  </si>
+  <si>
+    <t>make an array of len 26 with 0s; count how many times each char appears in the str, add it to arr with ord(); make hm key:tuple(arr) val:arr(anagrams)</t>
+  </si>
+  <si>
+    <t>Top k Freq. Elements</t>
   </si>
 </sst>
 </file>
@@ -550,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -566,9 +578,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -687,11 +696,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,52 +720,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -753,7 +765,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -772,15 +787,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,25 +870,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,35 +1274,35 @@
       <c r="J2" s="76"/>
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="78" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="5" t="s">
         <v>68</v>
       </c>
@@ -1294,1012 +1315,1039 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="84" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="78" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="79" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
     </row>
     <row r="6" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="84" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="78" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="79" t="s">
+      <c r="G6" s="57"/>
+      <c r="H6" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
       <c r="Q6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121">
+    <row r="7" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="64"/>
+      <c r="F7" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="60"/>
     </row>
     <row r="8" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="A8" s="125">
+        <v>5</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="17"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="112"/>
+      <c r="H13" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+    </row>
+    <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="114"/>
-      <c r="H13" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-    </row>
-    <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <v>1</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="97"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="95"/>
     </row>
     <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="A15" s="26">
+        <v>1</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B16" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="78" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="57"/>
+      <c r="H17" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="84"/>
+    </row>
+    <row r="18" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B18" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="78" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="94"/>
+      <c r="F18" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="83"/>
-    </row>
-    <row r="18" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="G18" s="101"/>
+      <c r="H18" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="95"/>
+    </row>
+    <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B19" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="102" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="103"/>
-      <c r="H18" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="97"/>
-    </row>
-    <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="G19" s="99"/>
+      <c r="H19" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="95"/>
+    </row>
+    <row r="20" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B20" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="98" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="101"/>
-      <c r="H19" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="97"/>
-    </row>
-    <row r="20" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="C20" s="66"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
         <v>4</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B21" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="93" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93" t="s">
+      <c r="E21" s="91"/>
+      <c r="F21" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="93"/>
+      <c r="G21" s="91"/>
       <c r="H21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36">
+      <c r="A22" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="92"/>
+      <c r="H22" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="95"/>
+    </row>
+    <row r="23" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35">
         <v>1</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B23" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="94"/>
-      <c r="H22" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="97"/>
-    </row>
-    <row r="23" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
-        <v>2</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="79" t="s">
+      <c r="H23" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="97"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="95"/>
     </row>
     <row r="24" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+      <c r="A24" s="28">
+        <v>2</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="95"/>
+    </row>
+    <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
         <v>3</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B25" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="97"/>
-    </row>
-    <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="C25" s="66"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+    </row>
+    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="30">
         <v>4</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B26" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-    </row>
-    <row r="26" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A26" s="58" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="90"/>
+      <c r="F26" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="92"/>
+      <c r="H26" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="106"/>
+    </row>
+    <row r="27" spans="1:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="91" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="94"/>
-      <c r="H26" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="108"/>
-    </row>
-    <row r="27" spans="1:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
-        <v>1</v>
-      </c>
-      <c r="B27" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="92"/>
-      <c r="F27" s="91" t="s">
+      <c r="E27" s="90"/>
+      <c r="F27" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="92"/>
-      <c r="H27" s="109" t="s">
+      <c r="G27" s="90"/>
+      <c r="H27" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="111"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="109"/>
     </row>
     <row r="28" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34">
+        <v>1</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="117"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="104"/>
+    </row>
+    <row r="29" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="33">
         <v>2</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B29" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="106"/>
-    </row>
-    <row r="29" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54">
+      <c r="C29" s="117"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="54"/>
+    </row>
+    <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="53">
         <v>3</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B30" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="55"/>
-    </row>
-    <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
+      <c r="C30" s="116"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="46"/>
+    </row>
+    <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="36">
         <v>4</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B31" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="47"/>
-    </row>
-    <row r="31" spans="1:16" ht="26" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="C31" s="119"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="A32" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-    </row>
-    <row r="32" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-    </row>
-    <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-    </row>
-    <row r="35" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-    </row>
-    <row r="37" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+    </row>
+    <row r="38" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A38" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-    </row>
-    <row r="38" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-    </row>
-    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+    </row>
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+    </row>
+    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A41" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-    </row>
-    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A41" s="19">
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
         <v>1</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B42" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-    </row>
-    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-    </row>
-    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
+      <c r="C42" s="124"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+    </row>
+    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+    </row>
+    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A44" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-    </row>
-    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-    </row>
-    <row r="45" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:17" s="22" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="87" t="s">
+      <c r="D45" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="88"/>
-      <c r="F45" s="89" t="s">
+      <c r="E45" s="86"/>
+      <c r="F45" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="90"/>
-      <c r="H45" s="24" t="s">
+      <c r="G45" s="88"/>
+      <c r="H45" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q45" s="24"/>
-    </row>
-    <row r="46" spans="1:17" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
+      <c r="Q45" s="23"/>
+    </row>
+    <row r="46" spans="1:17" s="22" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="88"/>
+      <c r="H46" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q46" s="23"/>
+    </row>
+    <row r="47" spans="1:17" s="22" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A47" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="90"/>
-      <c r="H46" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q46" s="24"/>
-    </row>
-    <row r="47" spans="1:17" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="Q47" s="23"/>
+    </row>
+    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A48" s="19">
         <v>1</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B48" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="Q47" s="24"/>
-    </row>
-    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A48" s="25">
+      <c r="C48" s="121"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="39"/>
+    </row>
+    <row r="49" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
         <v>2</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B49" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="40"/>
-    </row>
-    <row r="49" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="C49" s="25"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+    </row>
+    <row r="50" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
         <v>3</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-    </row>
-    <row r="50" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+    </row>
+    <row r="51" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A51" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-    </row>
-    <row r="51" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="40"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="39"/>
     </row>
     <row r="52" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-    </row>
-    <row r="53" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A53" s="58" t="s">
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+    </row>
+    <row r="53" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+    </row>
+    <row r="54" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A54" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-    </row>
-    <row r="54" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="39"/>
+    </row>
+    <row r="55" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
         <v>1</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B55" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="40"/>
-    </row>
-    <row r="55" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-    </row>
-    <row r="56" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A56" s="58" t="s">
+      <c r="C55" s="122"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+    </row>
+    <row r="56" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+    </row>
+    <row r="57" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A57" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-    </row>
-    <row r="57" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="40"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="39"/>
     </row>
     <row r="58" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-    </row>
-    <row r="59" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A59" s="58" t="s">
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+    </row>
+    <row r="59" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+    </row>
+    <row r="60" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A60" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-    </row>
-    <row r="60" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-    </row>
-    <row r="62" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A62" s="58" t="s">
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+    </row>
+    <row r="63" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A63" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="59"/>
-    </row>
-    <row r="63" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="62"/>
     </row>
     <row r="64" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
+    <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A11:C11"/>
+  <mergeCells count="87">
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A51:C51"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H13:P13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H22:P22"/>
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="H24:P24"/>
-    <mergeCell ref="H28:P28"/>
-    <mergeCell ref="H26:P26"/>
-    <mergeCell ref="H27:P27"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="D18:E18"/>
@@ -2308,6 +2356,53 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="H24:P24"/>
+    <mergeCell ref="H28:P28"/>
+    <mergeCell ref="H26:P26"/>
+    <mergeCell ref="H27:P27"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H1:J2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H5:P5"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:P7"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="F46:G46"/>
@@ -2317,56 +2412,6 @@
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H6:P6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H1:J2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H5:P5"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708EB2B2-2B79-4645-8674-4794CC25AB15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDD84DD-1667-634F-B2D9-908CD4AD8BB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>PREMIUM HAHA</t>
+  </si>
+  <si>
+    <t>make nums set; find all start points of seq.(where num-1 not in set); for each start point increase cur_len by 1 if start point+1 is in set</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Two Sum 2</t>
+  </si>
+  <si>
+    <t>leave only alnum lower chars, check if s == s reversed(use slices)</t>
+  </si>
+  <si>
+    <t>increase left pointer if nums[l] + nums[r] &lt; t; decrest right pointer if sum is &gt; t; else return [l+1, p+1]</t>
   </si>
 </sst>
 </file>
@@ -361,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -475,11 +490,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -580,161 +606,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -752,26 +628,249 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1102,67 +1201,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="113"/>
+      <c r="F1" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="80"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="70" t="s">
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="105"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1175,18 +1274,18 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1202,57 +1301,57 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="109"/>
+      <c r="D6" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="47" t="s">
+      <c r="E6" s="88"/>
+      <c r="F6" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="73" t="s">
+      <c r="G6" s="83"/>
+      <c r="H6" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="109"/>
+      <c r="D7" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="47" t="s">
+      <c r="E7" s="88"/>
+      <c r="F7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="73" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1261,29 +1360,29 @@
       <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="122"/>
+      <c r="D8" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="88"/>
+      <c r="F8" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49" t="s">
+      <c r="G8" s="83"/>
+      <c r="H8" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="73"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
@@ -1293,127 +1392,145 @@
         <v>56</v>
       </c>
       <c r="C9" s="38"/>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="88"/>
+      <c r="F9" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42" t="s">
+      <c r="G9" s="77"/>
+      <c r="H9" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <v>6</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="102" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="43" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86">
+      <c r="A11" s="40">
         <v>7</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="103" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100" t="s">
+      <c r="E11" s="74"/>
+      <c r="F11" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="43" t="s">
+      <c r="G11" s="75"/>
+      <c r="H11" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="44"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="97">
+      <c r="A12" s="47">
         <v>8</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="99"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87">
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+    </row>
+    <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="129">
         <v>9</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="C13" s="130"/>
+      <c r="D13" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62"/>
+    </row>
+    <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="23"/>
@@ -1421,413 +1538,427 @@
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="P14" s="56"/>
       <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
+      <c r="A15" s="51">
+        <v>1</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="115"/>
+      <c r="H15" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="73"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+    <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50">
+        <v>2</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="132"/>
+      <c r="H16" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="57"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+    <row r="18" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
+      <c r="P18" s="58"/>
       <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
+      <c r="A19" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B20" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="C20" s="120"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B21" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="C21" s="101"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A23" s="28">
         <v>1</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B23" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
-        <v>2</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="P23" s="58"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
+        <v>2</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="101"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28">
         <v>3</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B25" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="C25" s="101"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
         <v>4</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B26" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="C26" s="101"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
         <v>1</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B28" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="30">
+      <c r="C28" s="128"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="30">
         <v>2</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B29" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
+      <c r="C29" s="102"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="31">
         <v>3</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B30" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="19"/>
-    </row>
-    <row r="30" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32">
+      <c r="C30" s="100"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32">
         <v>4</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B31" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
       <c r="Q31" s="19"/>
     </row>
-    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+    <row r="32" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
         <v>1</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B33" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-    </row>
-    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
-        <v>2</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -1843,44 +1974,53 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A34" s="33">
+    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <v>2</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="103"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
         <v>3</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B35" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="C35" s="101"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
         <v>4</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B36" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -1889,36 +2029,36 @@
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A37" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-    </row>
-    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
@@ -1927,36 +2067,36 @@
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-    </row>
-    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A40" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-    </row>
-    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -1965,36 +2105,36 @@
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-    </row>
-    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A43" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-    </row>
-    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
@@ -2003,96 +2143,93 @@
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A46" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
         <v>1</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="15"/>
-      <c r="Q47" s="15"/>
-    </row>
-    <row r="48" spans="1:17" s="14" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="59"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="99"/>
       <c r="H48" s="15"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
+    <row r="49" spans="1:17" s="14" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A49" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="19"/>
-    </row>
-    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A51" s="52" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="Q50" s="15"/>
+    </row>
+    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="19"/>
+    </row>
+    <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A52" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-    </row>
-    <row r="52" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A52" s="33">
-        <v>1</v>
-      </c>
-      <c r="B52" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="46"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="86"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -2102,46 +2239,48 @@
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
+    <row r="53" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="33">
+        <v>1</v>
+      </c>
+      <c r="B53" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="124"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+    </row>
+    <row r="54" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A54" s="34">
         <v>2</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B54" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="19"/>
-    </row>
-    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
+      <c r="C54" s="35"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="19"/>
+    </row>
+    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
         <v>3</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B55" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-    </row>
-    <row r="55" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A55" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -2151,38 +2290,38 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A56" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A58" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
+    <row r="58" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
@@ -2192,42 +2331,42 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A59" s="35">
+    <row r="59" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A59" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+    </row>
+    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A60" s="35">
         <v>1</v>
       </c>
-      <c r="B59" s="85" t="s">
+      <c r="B60" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="19"/>
-    </row>
-    <row r="60" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A61" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
+    <row r="61" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
@@ -2237,130 +2376,149 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-    </row>
-    <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A62" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+    </row>
+    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A64" s="52" t="s">
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="A65" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-    </row>
-    <row r="67" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A67" s="52" t="s">
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+    </row>
+    <row r="68" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="A68" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="52"/>
-      <c r="C67" s="53"/>
-    </row>
-    <row r="68" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="86"/>
     </row>
     <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
+    <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A16:C16"/>
+  <mergeCells count="100">
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="H7:P7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:P16"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H6:P6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F47:G47"/>
     <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:P9"/>
@@ -2370,6 +2528,12 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:P10"/>
     <mergeCell ref="H11:P11"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDD84DD-1667-634F-B2D9-908CD4AD8BB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB99AC7-A19F-6648-A1ED-2FC265766CBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>increase left pointer if nums[l] + nums[r] &lt; t; decrest right pointer if sum is &gt; t; else return [l+1, p+1]</t>
+  </si>
+  <si>
+    <t>Three Sum</t>
+  </si>
+  <si>
+    <t>sort an array; for each unique 'a' loop through the array with 'b'(left) and 'c'(right) pointers(like in 2sum2); when u find a solution, don’t forget to also check for all unique 'b's</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -630,9 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -652,6 +655,195 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -685,191 +877,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:P15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,54 +1210,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="81"/>
       <c r="C1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114" t="s">
+      <c r="E1" s="82"/>
+      <c r="F1" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="114"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="104" t="s">
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
@@ -1257,11 +1266,11 @@
       <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1274,18 +1283,18 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="82" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82" t="s">
+      <c r="E5" s="96"/>
+      <c r="F5" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="82"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1301,57 +1310,57 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="94"/>
+      <c r="D6" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="82" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="110" t="s">
+      <c r="G6" s="97"/>
+      <c r="H6" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="87" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="82" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="110" t="s">
+      <c r="G7" s="97"/>
+      <c r="H7" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1360,29 +1369,29 @@
       <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="87" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="82" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="71" t="s">
+      <c r="G8" s="97"/>
+      <c r="H8" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="73"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="102"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
@@ -1392,53 +1401,53 @@
         <v>56</v>
       </c>
       <c r="C9" s="38"/>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="76" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78" t="s">
+      <c r="G9" s="118"/>
+      <c r="H9" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="80"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="121"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <v>6</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="92" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84" t="s">
+      <c r="E10" s="80"/>
+      <c r="F10" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="79" t="s">
+      <c r="G10" s="118"/>
+      <c r="H10" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="121"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
@@ -1448,89 +1457,89 @@
         <v>60</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74" t="s">
+      <c r="E11" s="113"/>
+      <c r="F11" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="79" t="s">
+      <c r="G11" s="116"/>
+      <c r="H11" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="80"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="121"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="47">
         <v>8</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="127"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="65"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="127"/>
     </row>
     <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="129">
+      <c r="A13" s="60">
         <v>9</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67" t="s">
+      <c r="E13" s="129"/>
+      <c r="F13" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="60" t="s">
+      <c r="G13" s="130"/>
+      <c r="H13" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="62"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="124"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="52"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="23"/>
@@ -1538,184 +1547,192 @@
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
-      <c r="P14" s="56"/>
+      <c r="P14" s="55"/>
       <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
+      <c r="A15" s="50">
         <v>1</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="115" t="s">
+      <c r="C15" s="132"/>
+      <c r="D15" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115" t="s">
+      <c r="E15" s="85"/>
+      <c r="F15" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="71" t="s">
+      <c r="G15" s="85"/>
+      <c r="H15" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="73"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="102"/>
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50">
         <v>2</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="131" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115" t="s">
+      <c r="E16" s="85"/>
+      <c r="F16" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="71" t="s">
+      <c r="G16" s="99"/>
+      <c r="H16" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="73"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="102"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+    <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="59">
+        <v>3</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="133"/>
+      <c r="D17" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="58"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+    <row r="19" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="58"/>
+      <c r="P19" s="57"/>
       <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+      <c r="A20" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B21" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
-        <v>2</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="101"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
       <c r="H21" s="53"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="57"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="58"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="53"/>
+    <row r="22" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
+        <v>2</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
@@ -1723,90 +1740,88 @@
       <c r="M22" s="42"/>
       <c r="N22" s="42"/>
       <c r="O22" s="42"/>
-      <c r="P22" s="57"/>
+      <c r="P22" s="56"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+    <row r="23" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A24" s="28">
         <v>1</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B24" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
-        <v>2</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="58"/>
+      <c r="P24" s="57"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
-        <v>3</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
+        <v>2</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
       <c r="P25" s="57"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
-        <v>4</v>
-      </c>
-      <c r="B26" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="53"/>
+    <row r="26" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28">
+        <v>3</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -1814,20 +1829,22 @@
       <c r="M26" s="42"/>
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
-      <c r="P26" s="57"/>
+      <c r="P26" s="56"/>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="53"/>
+    <row r="27" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>4</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
@@ -1835,153 +1852,151 @@
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
-      <c r="P27" s="57"/>
+      <c r="P27" s="56"/>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+    <row r="28" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
         <v>1</v>
       </c>
-      <c r="B28" s="128" t="s">
+      <c r="B29" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
+      <c r="C29" s="78"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="30">
         <v>2</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B30" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="19"/>
-    </row>
-    <row r="30" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="C30" s="89"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="31">
         <v>3</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B31" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32">
+      <c r="C31" s="68"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
         <v>4</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B32" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="19"/>
-    </row>
-    <row r="32" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
       <c r="Q32" s="19"/>
     </row>
-    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+    <row r="33" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="19"/>
+    </row>
+    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
         <v>1</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B34" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-    </row>
-    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
-        <v>2</v>
-      </c>
-      <c r="B34" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="103"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -1997,44 +2012,53 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
     </row>
-    <row r="35" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A35" s="33">
+    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>2</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A36" s="33">
         <v>3</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B36" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="C36" s="69"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
         <v>4</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B37" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A37" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -2043,36 +2067,36 @@
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A38" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-    </row>
-    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A40" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -2081,36 +2105,36 @@
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-    </row>
-    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A41" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-    </row>
-    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A43" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -2119,36 +2143,36 @@
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-    </row>
-    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-    </row>
-    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A46" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -2157,96 +2181,93 @@
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A47" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
         <v>1</v>
       </c>
-      <c r="B47" s="94" t="s">
+      <c r="B48" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-    </row>
-    <row r="48" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="15"/>
-      <c r="Q48" s="15"/>
-    </row>
-    <row r="49" spans="1:17" s="14" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A49" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="99"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="108"/>
       <c r="H49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
+    <row r="50" spans="1:17" s="14" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A50" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="19"/>
-    </row>
-    <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A52" s="85" t="s">
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="Q51" s="15"/>
+    </row>
+    <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="19"/>
+    </row>
+    <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A53" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-    </row>
-    <row r="53" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="33">
-        <v>1</v>
-      </c>
-      <c r="B53" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="124"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
@@ -2256,46 +2277,48 @@
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
+    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="33">
+        <v>1</v>
+      </c>
+      <c r="B54" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="74"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+    </row>
+    <row r="55" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
         <v>2</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B55" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="19"/>
-    </row>
-    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+      <c r="C55" s="35"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="19"/>
+    </row>
+    <row r="56" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
         <v>3</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B56" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-    </row>
-    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A56" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
@@ -2305,38 +2328,38 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A57" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A59" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
+    <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
@@ -2346,42 +2369,42 @@
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A60" s="35">
+    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A60" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+    </row>
+    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A61" s="35">
         <v>1</v>
       </c>
-      <c r="B60" s="123" t="s">
+      <c r="B61" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="125"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="19"/>
-    </row>
-    <row r="61" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A62" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
+    <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
@@ -2391,82 +2414,120 @@
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-    </row>
-    <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A63" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+    </row>
+    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A65" s="85" t="s">
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="A66" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-    </row>
-    <row r="68" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A68" s="85" t="s">
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+    </row>
+    <row r="69" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="A69" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="85"/>
-      <c r="C68" s="86"/>
-    </row>
-    <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="63"/>
     </row>
     <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
+    <row r="71" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F24:G24"/>
+  <mergeCells count="103">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:P8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="H11:P11"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2478,62 +2539,42 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:P16"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:P9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:P8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="H11:P11"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H12:P12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB99AC7-A19F-6648-A1ED-2FC265766CBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA146A-2D9F-F149-8E9B-AB94965AA131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>sort an array; for each unique 'a' loop through the array with 'b'(left) and 'c'(right) pointers(like in 2sum2); when u find a solution, don’t forget to also check for all unique 'b's</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>move a pointer that has lower height; on each step calculate current area and if its bigger than max area, replace it with current area</t>
   </si>
 </sst>
 </file>
@@ -655,40 +661,205 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,171 +884,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,54 +1216,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83" t="s">
+      <c r="E1" s="117"/>
+      <c r="F1" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="118"/>
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="103" t="s">
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
@@ -1266,11 +1272,11 @@
       <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1283,18 +1289,18 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="96" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="96"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1310,57 +1316,57 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="96" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="91" t="s">
+      <c r="G6" s="81"/>
+      <c r="H6" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="96" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="91" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1369,29 +1375,29 @@
       <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="95" t="s">
+      <c r="C8" s="125"/>
+      <c r="D8" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="96" t="s">
+      <c r="E8" s="89"/>
+      <c r="F8" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="100" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="102"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="68"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
@@ -1401,53 +1407,53 @@
         <v>56</v>
       </c>
       <c r="C9" s="38"/>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="117" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119" t="s">
+      <c r="G9" s="83"/>
+      <c r="H9" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="121"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <v>6</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="111" t="s">
+      <c r="C10" s="98"/>
+      <c r="D10" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80" t="s">
+      <c r="E10" s="82"/>
+      <c r="F10" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="120" t="s">
+      <c r="G10" s="83"/>
+      <c r="H10" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="121"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="85"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
@@ -1457,84 +1463,84 @@
         <v>60</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113" t="s">
+      <c r="E11" s="95"/>
+      <c r="F11" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="116"/>
-      <c r="H11" s="120" t="s">
+      <c r="G11" s="113"/>
+      <c r="H11" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="121"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="85"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="47">
         <v>8</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="127"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60">
+      <c r="A13" s="59">
         <v>9</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="128" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129" t="s">
+      <c r="E13" s="76"/>
+      <c r="F13" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="130"/>
-      <c r="H13" s="122" t="s">
+      <c r="G13" s="77"/>
+      <c r="H13" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="124"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="71"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1554,141 +1560,150 @@
       <c r="A15" s="50">
         <v>1</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="85" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="100" t="s">
+      <c r="G15" s="64"/>
+      <c r="H15" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="102"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50">
         <v>2</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="98" t="s">
+      <c r="C16" s="99"/>
+      <c r="D16" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85" t="s">
+      <c r="E16" s="64"/>
+      <c r="F16" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100" t="s">
+      <c r="G16" s="65"/>
+      <c r="H16" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="102"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59">
+      <c r="A17" s="50">
         <v>3</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="98" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85" t="s">
+      <c r="E17" s="64"/>
+      <c r="F17" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100" t="s">
+      <c r="G17" s="65"/>
+      <c r="H17" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="102"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+    <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50">
+        <v>4</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="57"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+    <row r="20" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -1698,61 +1713,60 @@
       <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
+      <c r="A21" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
         <v>1</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B22" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="C22" s="123"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28">
         <v>2</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B23" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="52"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
@@ -1764,43 +1778,42 @@
       <c r="P23" s="56"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+    <row r="24" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A25" s="28">
         <v>1</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B25" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
-        <v>2</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -1809,41 +1822,40 @@
       <c r="P25" s="57"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28">
+        <v>2</v>
+      </c>
+      <c r="B26" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="101"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28">
         <v>3</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B27" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
-        <v>4</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="19"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
       <c r="H27" s="52"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
@@ -1855,16 +1867,18 @@
       <c r="P27" s="56"/>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+    <row r="28" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>4</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="101"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="52"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
@@ -1876,150 +1890,148 @@
       <c r="P28" s="56"/>
       <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+    <row r="29" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
         <v>1</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B30" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-    </row>
-    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+      <c r="C30" s="133"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="30">
         <v>2</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B31" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31">
+      <c r="C31" s="104"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="31">
         <v>3</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B32" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="19"/>
-    </row>
-    <row r="32" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32">
+      <c r="C32" s="100"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
         <v>4</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B33" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="19"/>
-    </row>
-    <row r="33" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
       <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+    <row r="34" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
         <v>1</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B35" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-    </row>
-    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
-        <v>2</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -2035,44 +2047,53 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
     </row>
-    <row r="36" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A36" s="33">
+    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>2</v>
+      </c>
+      <c r="B36" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="105"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+    </row>
+    <row r="37" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A37" s="33">
         <v>3</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B37" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-    </row>
-    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="C37" s="101"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
         <v>4</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B38" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-    </row>
-    <row r="38" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -2081,36 +2102,36 @@
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-    </row>
-    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A39" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="86"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-    </row>
-    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A41" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
@@ -2119,36 +2140,36 @@
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-    </row>
-    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A42" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-    </row>
-    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -2157,36 +2178,36 @@
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-    </row>
-    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A45" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-    </row>
-    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A47" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -2195,96 +2216,93 @@
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A48" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
         <v>1</v>
       </c>
-      <c r="B48" s="114" t="s">
+      <c r="B49" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-    </row>
-    <row r="49" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="15"/>
-      <c r="Q49" s="15"/>
-    </row>
-    <row r="50" spans="1:17" s="14" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="108"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="103"/>
       <c r="H50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
+    <row r="51" spans="1:17" s="14" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A51" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="15"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="19"/>
-    </row>
-    <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="Q52" s="15"/>
+    </row>
+    <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="19"/>
+    </row>
+    <row r="54" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A54" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-    </row>
-    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="33">
-        <v>1</v>
-      </c>
-      <c r="B54" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="74"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="87"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -2294,46 +2312,48 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
     </row>
-    <row r="55" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="33">
+        <v>1</v>
+      </c>
+      <c r="B55" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="129"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+    </row>
+    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
         <v>2</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B56" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="19"/>
-    </row>
-    <row r="56" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
+      <c r="C56" s="35"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="19"/>
+    </row>
+    <row r="57" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="34">
         <v>3</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B57" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-    </row>
-    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A57" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
@@ -2343,38 +2363,38 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
+    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A58" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="26" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A60" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+    <row r="60" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
@@ -2384,42 +2404,42 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A61" s="35">
+    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A61" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+    </row>
+    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A62" s="35">
         <v>1</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B62" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="75"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="19"/>
-    </row>
-    <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A63" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
+    <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
@@ -2429,105 +2449,116 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-    </row>
-    <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A64" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+    </row>
+    <row r="65" spans="1:10" ht="26" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A66" s="62" t="s">
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A67" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-    </row>
-    <row r="69" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A69" s="62" t="s">
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
+    </row>
+    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A70" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="63"/>
-    </row>
-    <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B70" s="86"/>
+      <c r="C70" s="87"/>
+    </row>
+    <row r="71" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
+    <row r="72" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H12:P12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:P8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="H11:P11"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="106">
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:P18"/>
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2539,42 +2570,49 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:P16"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:P8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="H11:P11"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA146A-2D9F-F149-8E9B-AB94965AA131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DD4701-9F03-7D43-832C-A6BA30BE5AB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Encode and Decode Strings</t>
   </si>
   <si>
-    <t>Don’t understand or new</t>
-  </si>
-  <si>
     <t>Longest Consecutive Sequence</t>
   </si>
   <si>
@@ -274,6 +271,27 @@
   </si>
   <si>
     <t>move a pointer that has lower height; on each step calculate current area and if its bigger than max area, replace it with current area</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>dif: hard; after all mediums</t>
+  </si>
+  <si>
+    <t>Best Time to Buy/Sell Stock</t>
+  </si>
+  <si>
+    <t>Don’t understand at all or not finished</t>
+  </si>
+  <si>
+    <t>l,r pointers; shift rp by 1 on each iter, if p[r] &lt; p[l] shift lp to rp</t>
+  </si>
+  <si>
+    <t>Longest Unique Substring</t>
+  </si>
+  <si>
+    <t>if s[rp] in set, remove s[lp] until s[rp] in set, otherwise add s[rp] to set</t>
   </si>
 </sst>
 </file>
@@ -517,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -541,9 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -642,9 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -652,9 +664,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -673,6 +682,45 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -700,13 +748,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -718,10 +766,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -730,107 +862,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1200,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,67 +1267,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="19"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="129"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="106" t="s">
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1289,18 +1340,18 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="80" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80" t="s">
+      <c r="E5" s="118"/>
+      <c r="F5" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="80"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1316,682 +1367,700 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="117"/>
+      <c r="D6" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="80" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="111" t="s">
+      <c r="G6" s="119"/>
+      <c r="H6" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="88" t="s">
+      <c r="C7" s="117"/>
+      <c r="D7" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="80" t="s">
+      <c r="E7" s="98"/>
+      <c r="F7" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="111" t="s">
+      <c r="G7" s="119"/>
+      <c r="H7" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="88" t="s">
+      <c r="C8" s="136"/>
+      <c r="D8" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="80" t="s">
+      <c r="E8" s="98"/>
+      <c r="F8" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="66" t="s">
+      <c r="G8" s="119"/>
+      <c r="H8" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="68"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="78"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37">
+      <c r="A9" s="36">
         <v>5</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="88" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="114" t="s">
+      <c r="E9" s="98"/>
+      <c r="F9" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="115" t="s">
+      <c r="G9" s="96"/>
+      <c r="H9" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="85"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37">
+      <c r="A10" s="36">
         <v>6</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="93" t="s">
+      <c r="C10" s="116"/>
+      <c r="D10" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82" t="s">
+      <c r="E10" s="95"/>
+      <c r="F10" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84" t="s">
+      <c r="G10" s="96"/>
+      <c r="H10" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="85"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40">
+      <c r="A11" s="39">
         <v>7</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="94" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95" t="s">
+      <c r="E11" s="101"/>
+      <c r="F11" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="84" t="s">
+      <c r="G11" s="125"/>
+      <c r="H11" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="85"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
+      <c r="A12" s="46">
         <v>8</v>
       </c>
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="72" t="s">
+      <c r="C12" s="143"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="84"/>
+    </row>
+    <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="56">
+        <v>9</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
-    </row>
-    <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59">
-        <v>9</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="71"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="81"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="120"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="19"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50">
+      <c r="A15" s="61">
         <v>1</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="107"/>
+      <c r="D15" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="63">
+        <v>2</v>
+      </c>
+      <c r="B16" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="64" t="s">
+      <c r="C16" s="107"/>
+      <c r="D16" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="66" t="s">
+      <c r="G16" s="75"/>
+      <c r="H16" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="19"/>
-    </row>
-    <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50">
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="18"/>
+    </row>
+    <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="63">
+        <v>3</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="63">
+        <v>4</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62">
+        <v>5</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="121"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="64">
+        <v>1</v>
+      </c>
+      <c r="B21" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="96"/>
+      <c r="H21" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="66">
         <v>2</v>
       </c>
-      <c r="B16" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="63" t="s">
+      <c r="B22" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50">
+      <c r="E22" s="95"/>
+      <c r="F22" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="96"/>
+      <c r="H22" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="132"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
+        <v>1</v>
+      </c>
+      <c r="B24" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="134"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>2</v>
+      </c>
+      <c r="B25" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="109"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A27" s="27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="109"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
+        <v>2</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="109"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="18"/>
+    </row>
+    <row r="29" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
         <v>3</v>
       </c>
-      <c r="B17" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50">
+      <c r="B29" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="109"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
         <v>4</v>
       </c>
-      <c r="B18" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
+      <c r="B30" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="109"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="18"/>
+    </row>
+    <row r="31" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="18"/>
+    </row>
+    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
         <v>1</v>
       </c>
-      <c r="B22" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="B32" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="144"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+    </row>
+    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="29">
         <v>2</v>
       </c>
-      <c r="B23" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
-        <v>1</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
-        <v>2</v>
-      </c>
-      <c r="B26" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
-        <v>3</v>
-      </c>
-      <c r="B27" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <v>4</v>
-      </c>
-      <c r="B28" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="19"/>
-    </row>
-    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
-        <v>1</v>
-      </c>
-      <c r="B30" s="133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
-        <v>2</v>
-      </c>
-      <c r="B31" s="104" t="s">
+      <c r="B33" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="19"/>
-    </row>
-    <row r="32" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
-        <v>3</v>
-      </c>
-      <c r="B32" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="19"/>
-    </row>
-    <row r="33" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32">
-        <v>4</v>
-      </c>
-      <c r="B33" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
@@ -2001,564 +2070,612 @@
       <c r="N33" s="43"/>
       <c r="O33" s="43"/>
       <c r="P33" s="43"/>
-      <c r="Q33" s="19"/>
-    </row>
-    <row r="34" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="86" t="s">
+      <c r="Q33" s="18"/>
+    </row>
+    <row r="34" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30">
+        <v>3</v>
+      </c>
+      <c r="B34" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="108"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="18"/>
+    </row>
+    <row r="35" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="31">
+        <v>4</v>
+      </c>
+      <c r="B35" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="110"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="18"/>
+    </row>
+    <row r="36" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="19"/>
-    </row>
-    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="18"/>
+    </row>
+    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
         <v>1</v>
       </c>
-      <c r="B35" s="105" t="s">
+      <c r="B37" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-    </row>
-    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
-        <v>2</v>
-      </c>
-      <c r="B36" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-    </row>
-    <row r="37" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A37" s="33">
-        <v>3</v>
-      </c>
-      <c r="B37" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="30">
+        <v>2</v>
+      </c>
+      <c r="B38" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+    </row>
+    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A39" s="32">
+        <v>3</v>
+      </c>
+      <c r="B39" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="109"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
         <v>4</v>
       </c>
-      <c r="B38" s="126" t="s">
+      <c r="B40" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="127"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-    </row>
-    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-    </row>
-    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="138"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-    </row>
-    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-    </row>
-    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A42" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-    </row>
-    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A41" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="104"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-    </row>
-    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-    </row>
-    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A45" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-    </row>
-    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A44" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-    </row>
-    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A48" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-    </row>
-    <row r="49" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
-        <v>1</v>
-      </c>
-      <c r="B49" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="97"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A47" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-    </row>
-    <row r="50" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="15"/>
-      <c r="Q50" s="15"/>
-    </row>
-    <row r="51" spans="1:17" s="14" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A51" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="15"/>
-      <c r="Q51" s="15"/>
-    </row>
-    <row r="52" spans="1:17" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A50" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>1</v>
+      </c>
+      <c r="B51" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="103"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:17" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="Q52" s="15"/>
-    </row>
-    <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="19"/>
-    </row>
-    <row r="54" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A54" s="86" t="s">
+      <c r="D52" s="97"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="14"/>
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="1:17" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A53" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="14"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="1:17" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A56" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-    </row>
-    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="33">
-        <v>1</v>
-      </c>
-      <c r="B55" s="128" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="129"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-    </row>
-    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
-        <v>2</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="35"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="105"/>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="19"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
     </row>
     <row r="57" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="34">
+      <c r="A57" s="32">
+        <v>1</v>
+      </c>
+      <c r="B57" s="139" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="140"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A58" s="33">
+        <v>2</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
         <v>3</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-    </row>
-    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A58" s="86" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A60" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-    </row>
-    <row r="59" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="19"/>
-    </row>
-    <row r="60" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-    </row>
-    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A61" s="86" t="s">
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A63" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-    </row>
-    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
         <v>1</v>
       </c>
-      <c r="B62" s="128" t="s">
+      <c r="B64" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="130"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="19"/>
-    </row>
-    <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-    </row>
-    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A64" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-    </row>
-    <row r="65" spans="1:10" ht="26" x14ac:dyDescent="0.25">
+      <c r="C64" s="141"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-    </row>
-    <row r="66" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A67" s="86" t="s">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A66" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A69" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-    </row>
-    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A70" s="86" t="s">
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+    </row>
+    <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A72" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="86"/>
-      <c r="C70" s="87"/>
-    </row>
-    <row r="71" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="105"/>
+    </row>
+    <row r="73" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A19:C19"/>
+  <mergeCells count="114">
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:C53"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="H2:J3"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2570,40 +2687,35 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:P16"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:P8"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:P10"/>
     <mergeCell ref="H11:P11"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A45:C45"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H9:P9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:P17"/>
@@ -2611,8 +2723,19 @@
     <mergeCell ref="H12:P12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="H21:P21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H18:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DD4701-9F03-7D43-832C-A6BA30BE5AB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E7781-CB2A-CE45-A841-BFC0549DD2EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>if s[rp] in set, remove s[lp] until s[rp] in set, otherwise add s[rp] to set</t>
+  </si>
+  <si>
+    <t>Longest Repeating Char Replacement</t>
+  </si>
+  <si>
+    <t>maintain 'most occurred char' and 'sum of all chars'; if 'sum of all chars' - 'most occurred char' &gt; k, then u need to shift 'lp', decrease its value in counts and decrease 'sum of all chars' until its false, otherwise u just shift rp and increase sum of all chars</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,23 +700,200 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,27 +901,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -775,166 +937,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1267,54 +1276,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="127"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="129" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="129"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="124" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -1323,11 +1332,11 @@
       <c r="P3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1340,18 +1349,18 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118" t="s">
+      <c r="E5" s="106"/>
+      <c r="F5" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="118"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1367,57 +1376,57 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="99" t="s">
+      <c r="C6" s="108"/>
+      <c r="D6" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="118" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="119"/>
-      <c r="H6" s="114" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="99" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="118" t="s">
+      <c r="E7" s="94"/>
+      <c r="F7" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="114" t="s">
+      <c r="G7" s="116"/>
+      <c r="H7" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1426,29 +1435,29 @@
       <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="99" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="118" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="76" t="s">
+      <c r="G8" s="116"/>
+      <c r="H8" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="78"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="119"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36">
@@ -1458,53 +1467,53 @@
         <v>56</v>
       </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="126" t="s">
+      <c r="E9" s="94"/>
+      <c r="F9" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="91" t="s">
+      <c r="G9" s="90"/>
+      <c r="H9" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="121"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36">
         <v>6</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="94" t="s">
+      <c r="C10" s="107"/>
+      <c r="D10" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="92" t="s">
+      <c r="G10" s="90"/>
+      <c r="H10" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="121"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39">
@@ -1514,49 +1523,49 @@
         <v>60</v>
       </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101" t="s">
+      <c r="E11" s="110"/>
+      <c r="F11" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="125"/>
-      <c r="H11" s="92" t="s">
+      <c r="G11" s="111"/>
+      <c r="H11" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="121"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <v>8</v>
       </c>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="84"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="136"/>
     </row>
     <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
@@ -1566,32 +1575,32 @@
         <v>68</v>
       </c>
       <c r="C13" s="57"/>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86" t="s">
+      <c r="E13" s="138"/>
+      <c r="F13" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="79" t="s">
+      <c r="G13" s="139"/>
+      <c r="H13" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="81"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1611,58 +1620,58 @@
       <c r="A15" s="61">
         <v>1</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="74" t="s">
+      <c r="C15" s="127"/>
+      <c r="D15" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74" t="s">
+      <c r="E15" s="95"/>
+      <c r="F15" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="76" t="s">
+      <c r="G15" s="95"/>
+      <c r="H15" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="78"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="119"/>
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63">
         <v>2</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="73" t="s">
+      <c r="C16" s="127"/>
+      <c r="D16" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76" t="s">
+      <c r="G16" s="102"/>
+      <c r="H16" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="78"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="119"/>
       <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1673,25 +1682,25 @@
         <v>75</v>
       </c>
       <c r="C17" s="59"/>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74" t="s">
+      <c r="E17" s="95"/>
+      <c r="F17" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76" t="s">
+      <c r="G17" s="102"/>
+      <c r="H17" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="78"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="119"/>
       <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1702,58 +1711,58 @@
         <v>77</v>
       </c>
       <c r="C18" s="59"/>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74" t="s">
+      <c r="E18" s="95"/>
+      <c r="F18" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76" t="s">
+      <c r="G18" s="102"/>
+      <c r="H18" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="78"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="119"/>
       <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62">
         <v>5</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="90"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="142"/>
       <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="131"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
@@ -1770,139 +1779,147 @@
       <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="64">
+      <c r="A21" s="66">
         <v>1</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="94" t="s">
+      <c r="C21" s="127"/>
+      <c r="D21" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95" t="s">
+      <c r="E21" s="89"/>
+      <c r="F21" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="91" t="s">
+      <c r="G21" s="90"/>
+      <c r="H21" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="121"/>
       <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="66">
+      <c r="A22" s="68">
         <v>2</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="94" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95" t="s">
+      <c r="E22" s="89"/>
+      <c r="F22" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="91" t="s">
+      <c r="G22" s="90"/>
+      <c r="H22" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="93"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="121"/>
       <c r="Q22" s="18"/>
     </row>
-    <row r="23" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="132" t="s">
+    <row r="23" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="69">
+        <v>3</v>
+      </c>
+      <c r="B23" s="144" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="145"/>
+      <c r="D23" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="90"/>
+      <c r="H23" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="18"/>
-    </row>
-    <row r="24" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
         <v>1</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B25" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="18"/>
-    </row>
-    <row r="25" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27">
+      <c r="C25" s="100"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27">
         <v>2</v>
       </c>
-      <c r="B25" s="108" t="s">
+      <c r="B26" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="18"/>
-    </row>
-    <row r="26" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="50"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
@@ -1914,43 +1931,42 @@
       <c r="P26" s="53"/>
       <c r="Q26" s="18"/>
     </row>
-    <row r="27" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
+    <row r="27" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B28" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="18"/>
-    </row>
-    <row r="28" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
-        <v>2</v>
-      </c>
-      <c r="B28" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
@@ -1959,41 +1975,40 @@
       <c r="P28" s="54"/>
       <c r="Q28" s="18"/>
     </row>
-    <row r="29" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
+        <v>2</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="78"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27">
         <v>3</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="B30" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="18"/>
-    </row>
-    <row r="30" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
-        <v>4</v>
-      </c>
-      <c r="B30" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
       <c r="H30" s="50"/>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
@@ -2005,16 +2020,18 @@
       <c r="P30" s="53"/>
       <c r="Q30" s="18"/>
     </row>
-    <row r="31" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+    <row r="31" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>4</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="50"/>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
@@ -2026,150 +2043,148 @@
       <c r="P31" s="53"/>
       <c r="Q31" s="18"/>
     </row>
-    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+    <row r="32" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="18"/>
+    </row>
+    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
         <v>1</v>
       </c>
-      <c r="B32" s="144" t="s">
+      <c r="B33" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-    </row>
-    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="C33" s="87"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+    </row>
+    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A34" s="29">
         <v>2</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="B34" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="18"/>
-    </row>
-    <row r="34" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
+      <c r="C34" s="99"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="18"/>
+    </row>
+    <row r="35" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="30">
         <v>3</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B35" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="18"/>
-    </row>
-    <row r="35" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31">
+      <c r="C35" s="77"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="18"/>
+    </row>
+    <row r="36" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="31">
         <v>4</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B36" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="18"/>
-    </row>
-    <row r="36" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
       <c r="Q36" s="18"/>
     </row>
-    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="31">
+    <row r="37" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="18"/>
+    </row>
+    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
         <v>1</v>
       </c>
-      <c r="B37" s="110" t="s">
+      <c r="B38" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-    </row>
-    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
-        <v>2</v>
-      </c>
-      <c r="B38" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="110"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
@@ -2185,44 +2200,53 @@
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
     </row>
-    <row r="39" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A39" s="32">
+    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>2</v>
+      </c>
+      <c r="B39" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="79"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+    </row>
+    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A40" s="32">
         <v>3</v>
       </c>
-      <c r="B39" s="108" t="s">
+      <c r="B40" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="C40" s="78"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
         <v>4</v>
       </c>
-      <c r="B40" s="137" t="s">
+      <c r="B41" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A41" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -2231,36 +2255,36 @@
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A42" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A44" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -2269,36 +2293,36 @@
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A45" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A47" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -2307,36 +2331,36 @@
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A48" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A50" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -2345,96 +2369,93 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
+    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A51" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
         <v>1</v>
       </c>
-      <c r="B51" s="102" t="s">
+      <c r="B52" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="1:17" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="14"/>
-      <c r="Q52" s="14"/>
-    </row>
-    <row r="53" spans="1:17" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A53" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="71"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:17" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="130"/>
       <c r="H53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="1:17" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
+    <row r="54" spans="1:17" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A54" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="18"/>
-    </row>
-    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A56" s="104" t="s">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A57" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="104"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-    </row>
-    <row r="57" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="32">
-        <v>1</v>
-      </c>
-      <c r="B57" s="139" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="140"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="72"/>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
@@ -2444,46 +2465,48 @@
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
     </row>
-    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A58" s="33">
+    <row r="58" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="32">
+        <v>1</v>
+      </c>
+      <c r="B58" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="83"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
         <v>2</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B59" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="18"/>
-    </row>
-    <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="33">
+      <c r="C59" s="34"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="33">
         <v>3</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B60" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-    </row>
-    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A60" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -2493,38 +2516,38 @@
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
+    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A61" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
       <c r="K61" s="18"/>
     </row>
-    <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A63" s="104" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104"/>
+    <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -2534,42 +2557,42 @@
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
+    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A64" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A65" s="34">
         <v>1</v>
       </c>
-      <c r="B64" s="139" t="s">
+      <c r="B65" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="141"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A66" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
+    <row r="66" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
@@ -2579,103 +2602,116 @@
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
     </row>
-    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A67" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="71"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A69" s="104" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A70" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-    </row>
-    <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A72" s="104" t="s">
+      <c r="B70" s="71"/>
+      <c r="C70" s="71"/>
+    </row>
+    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A73" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="104"/>
-      <c r="C72" s="105"/>
-    </row>
-    <row r="73" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="72"/>
     </row>
     <row r="74" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
+    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
+  <mergeCells count="118">
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="H21:P21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H18:P18"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2694,48 +2730,54 @@
     <mergeCell ref="H11:P11"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H9:P9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H12:P12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H21:P21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H22:P22"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E7781-CB2A-CE45-A841-BFC0549DD2EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325677D4-FAC9-A743-9F8A-BE3D350FCE48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>maintain 'most occurred char' and 'sum of all chars'; if 'sum of all chars' - 'most occurred char' &gt; k, then u need to shift 'lp', decrease its value in counts and decrease 'sum of all chars' until its false, otherwise u just shift rp and increase sum of all chars</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>lp = 0, rp = len of permutation; slide the window by 1(for both lp and rp) and maintain count for that window; if count of permutation = count of window, return true</t>
   </si>
 </sst>
 </file>
@@ -541,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,9 +560,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -594,7 +597,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -642,9 +644,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -663,14 +662,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -718,34 +713,202 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,179 +935,32 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1260,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:P23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,91 +1292,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93" t="s">
+      <c r="E1" s="117"/>
+      <c r="F1" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="103" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="70" t="s">
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="48"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="106" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="106"/>
+      <c r="G5" s="114"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1373,1345 +1389,1376 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="115" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="106" t="s">
+      <c r="E6" s="93"/>
+      <c r="F6" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="113" t="s">
+      <c r="G6" s="115"/>
+      <c r="H6" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="115" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="106" t="s">
+      <c r="E7" s="93"/>
+      <c r="F7" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="116"/>
-      <c r="H7" s="113" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="115" t="s">
+      <c r="C8" s="130"/>
+      <c r="D8" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="106" t="s">
+      <c r="E8" s="93"/>
+      <c r="F8" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117" t="s">
+      <c r="G8" s="115"/>
+      <c r="H8" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="119"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="76"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
+      <c r="A9" s="34">
         <v>5</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="115" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="112" t="s">
+      <c r="E9" s="93"/>
+      <c r="F9" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="122" t="s">
+      <c r="G9" s="91"/>
+      <c r="H9" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="121"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
+      <c r="A10" s="34">
         <v>6</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="110"/>
+      <c r="D10" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89" t="s">
+      <c r="E10" s="90"/>
+      <c r="F10" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="120" t="s">
+      <c r="G10" s="91"/>
+      <c r="H10" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="121"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="67"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39">
+      <c r="A11" s="37">
         <v>7</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="123" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110" t="s">
+      <c r="E11" s="97"/>
+      <c r="F11" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="120" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="121"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46">
+      <c r="A12" s="43">
         <v>8</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="134" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="136"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="82"/>
     </row>
     <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56">
+      <c r="A13" s="51">
         <v>9</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="137" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="139"/>
-      <c r="H13" s="131" t="s">
+      <c r="G13" s="85"/>
+      <c r="H13" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="133"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="79"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="18"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61">
+      <c r="A15" s="56">
         <v>1</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="95" t="s">
+      <c r="C15" s="103"/>
+      <c r="D15" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95" t="s">
+      <c r="E15" s="72"/>
+      <c r="F15" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="117" t="s">
+      <c r="G15" s="72"/>
+      <c r="H15" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="18"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63">
+      <c r="A16" s="58">
         <v>2</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="101" t="s">
+      <c r="C16" s="103"/>
+      <c r="D16" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95" t="s">
+      <c r="E16" s="72"/>
+      <c r="F16" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="117" t="s">
+      <c r="G16" s="73"/>
+      <c r="H16" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="18"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63">
+      <c r="A17" s="58">
         <v>3</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="101" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95" t="s">
+      <c r="E17" s="72"/>
+      <c r="F17" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="117" t="s">
+      <c r="G17" s="73"/>
+      <c r="H17" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="18"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63">
+      <c r="A18" s="58">
         <v>4</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="101" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95" t="s">
+      <c r="E18" s="72"/>
+      <c r="F18" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="117" t="s">
+      <c r="G18" s="73"/>
+      <c r="H18" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="18"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62">
+      <c r="A19" s="57">
         <v>5</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="140" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="18"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="18"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="66">
+      <c r="A21" s="61">
         <v>1</v>
       </c>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="88" t="s">
+      <c r="C21" s="103"/>
+      <c r="D21" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89" t="s">
+      <c r="E21" s="90"/>
+      <c r="F21" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="122" t="s">
+      <c r="G21" s="91"/>
+      <c r="H21" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="18"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68">
+      <c r="A22" s="63">
         <v>2</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="88" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89" t="s">
+      <c r="E22" s="90"/>
+      <c r="F22" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="122" t="s">
+      <c r="G22" s="91"/>
+      <c r="H22" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="18"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="69">
+      <c r="A23" s="139">
         <v>3</v>
       </c>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="88" t="s">
+      <c r="C23" s="113"/>
+      <c r="D23" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89" t="s">
+      <c r="E23" s="90"/>
+      <c r="F23" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="122" t="s">
+      <c r="G23" s="91"/>
+      <c r="H23" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="18"/>
-    </row>
-    <row r="24" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="97" t="s">
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="64">
+        <v>4</v>
+      </c>
+      <c r="B24" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="91"/>
+      <c r="H24" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="18"/>
-    </row>
-    <row r="25" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
         <v>1</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B26" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="18"/>
-    </row>
-    <row r="26" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+      <c r="C26" s="124"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
         <v>2</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B27" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="18"/>
-    </row>
-    <row r="27" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104" t="s">
+      <c r="C27" s="105"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="18"/>
-    </row>
-    <row r="28" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
         <v>1</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B29" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="18"/>
-    </row>
-    <row r="29" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
+      <c r="C29" s="105"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
         <v>2</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B30" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="18"/>
-    </row>
-    <row r="30" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
+      <c r="C30" s="105"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
         <v>3</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B31" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="C31" s="105"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
         <v>4</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B32" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="18"/>
-    </row>
-    <row r="32" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="18"/>
-    </row>
-    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="G32" s="17"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
         <v>1</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B34" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-    </row>
-    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
+      <c r="C34" s="138"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A35" s="27">
         <v>2</v>
       </c>
-      <c r="B34" s="99" t="s">
+      <c r="B35" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="18"/>
-    </row>
-    <row r="35" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30">
+      <c r="C35" s="106"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28">
         <v>3</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B36" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="18"/>
-    </row>
-    <row r="36" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31">
+      <c r="C36" s="104"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="29">
         <v>4</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B37" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="18"/>
-    </row>
-    <row r="37" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="71" t="s">
+      <c r="C37" s="107"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="18"/>
-    </row>
-    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="31">
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
         <v>1</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B39" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-    </row>
-    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="C39" s="107"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
         <v>2</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B40" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-    </row>
-    <row r="40" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A40" s="32">
-        <v>3</v>
-      </c>
-      <c r="B40" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A41" s="30">
+        <v>3</v>
+      </c>
+      <c r="B41" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="105"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>4</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B42" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A42" s="71" t="s">
+      <c r="C42" s="132"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A43" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="101"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A46" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A48" s="71" t="s">
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A49" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A51" s="71" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A52" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
-        <v>1</v>
-      </c>
-      <c r="B52" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="125"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="1:17" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="143"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="14"/>
-      <c r="Q53" s="14"/>
-    </row>
-    <row r="54" spans="1:17" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A54" s="71" t="s">
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>1</v>
+      </c>
+      <c r="B53" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="99"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+    </row>
+    <row r="54" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="13"/>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A55" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="14"/>
-      <c r="Q54" s="14"/>
-    </row>
-    <row r="55" spans="1:17" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="Q55" s="14"/>
-    </row>
-    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="13"/>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="18"/>
-    </row>
-    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A57" s="71" t="s">
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="17"/>
+    </row>
+    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A58" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-    </row>
-    <row r="58" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A58" s="32">
+      <c r="B58" s="100"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+    </row>
+    <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
         <v>1</v>
       </c>
-      <c r="B58" s="82" t="s">
+      <c r="B59" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="83"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-    </row>
-    <row r="59" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A59" s="33">
-        <v>2</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="34"/>
+      <c r="C59" s="134"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="18"/>
-    </row>
-    <row r="60" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="33">
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+    </row>
+    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A60" s="31">
+        <v>2</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="31">
         <v>3</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B61" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-    </row>
-    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A61" s="71" t="s">
+      <c r="C61" s="32"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A62" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-    </row>
-    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+    </row>
+    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A64" s="71" t="s">
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="17"/>
+    </row>
+    <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A65" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A65" s="34">
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A66" s="32">
         <v>1</v>
       </c>
-      <c r="B65" s="82" t="s">
+      <c r="B66" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="18"/>
-    </row>
-    <row r="66" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A67" s="71" t="s">
+      <c r="C66" s="135"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="17"/>
+    </row>
+    <row r="67" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+    </row>
+    <row r="68" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A68" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+    </row>
+    <row r="69" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A70" s="71" t="s">
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+    </row>
+    <row r="70" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A71" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-    </row>
-    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A73" s="71" t="s">
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+    </row>
+    <row r="74" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A74" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="71"/>
-      <c r="C73" s="72"/>
-    </row>
-    <row r="74" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="101"/>
     </row>
     <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
+    <row r="76" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H12:P12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H21:P21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H22:P22"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D29:E29"/>
+  <mergeCells count="122">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:P24"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2730,54 +2777,56 @@
     <mergeCell ref="H11:P11"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H9:P9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="H21:P21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325677D4-FAC9-A743-9F8A-BE3D350FCE48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF89C2DE-81DE-2C4E-9A32-84C093A7834A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -304,6 +304,24 @@
   </si>
   <si>
     <t>lp = 0, rp = len of permutation; slide the window by 1(for both lp and rp) and maintain count for that window; if count of permutation = count of window, return true</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>make brackets map with key:revbr val:br; for each char check: if in map.values -&gt; push it to stack, if in map.keys -&gt; check if last stack char is an oppening for the current bracket, if not return false; of stack is empty at the end, it means s is valid</t>
+  </si>
+  <si>
+    <t>T: O(1)</t>
+  </si>
+  <si>
+    <t>need to maintain min_stack, with min values in it and pop from it only if stack.pop == min_stack.pop</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
   </si>
 </sst>
 </file>
@@ -547,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -604,9 +622,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -656,7 +671,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -665,12 +679,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -710,36 +722,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -749,193 +731,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,6 +766,247 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:P16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,67 +1338,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118" t="s">
+      <c r="E1" s="105"/>
+      <c r="F1" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="118"/>
+      <c r="G1" s="106"/>
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="125" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="128" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1365,18 +1411,18 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114" t="s">
+      <c r="E5" s="117"/>
+      <c r="F5" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="114"/>
+      <c r="G5" s="117"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1392,57 +1438,57 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="95" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="114" t="s">
+      <c r="E6" s="107"/>
+      <c r="F6" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="111" t="s">
+      <c r="G6" s="121"/>
+      <c r="H6" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="95" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="114" t="s">
+      <c r="E7" s="107"/>
+      <c r="F7" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="111" t="s">
+      <c r="G7" s="121"/>
+      <c r="H7" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1451,847 +1497,871 @@
       <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="95" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="114" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="74" t="s">
+      <c r="G8" s="121"/>
+      <c r="H8" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="124"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>5</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="95" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="109" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="65" t="s">
+      <c r="G9" s="78"/>
+      <c r="H9" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="67"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="81"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="89" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90" t="s">
+      <c r="E10" s="77"/>
+      <c r="F10" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="66" t="s">
+      <c r="G10" s="78"/>
+      <c r="H10" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="67"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="81"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37">
+      <c r="A11" s="36">
         <v>7</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="96" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="66" t="s">
+      <c r="G11" s="133"/>
+      <c r="H11" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="67"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="81"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43">
+      <c r="A12" s="41">
         <v>8</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="82"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="141"/>
     </row>
     <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51">
+      <c r="A13" s="47">
         <v>9</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="83" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84" t="s">
+      <c r="E13" s="143"/>
+      <c r="F13" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="77" t="s">
+      <c r="G13" s="144"/>
+      <c r="H13" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="79"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="138"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="143"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56">
+      <c r="A15" s="52">
         <v>1</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="72" t="s">
+      <c r="C15" s="130"/>
+      <c r="D15" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72" t="s">
+      <c r="E15" s="108"/>
+      <c r="F15" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="74" t="s">
+      <c r="G15" s="108"/>
+      <c r="H15" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="76"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="124"/>
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58">
+      <c r="A16" s="54">
         <v>2</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="71" t="s">
+      <c r="C16" s="130"/>
+      <c r="D16" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72" t="s">
+      <c r="E16" s="108"/>
+      <c r="F16" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74" t="s">
+      <c r="G16" s="113"/>
+      <c r="H16" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="124"/>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58">
+      <c r="A17" s="54">
         <v>3</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="71" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72" t="s">
+      <c r="E17" s="108"/>
+      <c r="F17" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74" t="s">
+      <c r="G17" s="113"/>
+      <c r="H17" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="76"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58">
+      <c r="A18" s="54">
         <v>4</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="71" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72" t="s">
+      <c r="E18" s="108"/>
+      <c r="F18" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74" t="s">
+      <c r="G18" s="113"/>
+      <c r="H18" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="76"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="124"/>
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="53">
         <v>5</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="86" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="147"/>
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="149"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="76"/>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="61">
+      <c r="A21" s="57">
         <v>1</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="89" t="s">
+      <c r="C21" s="130"/>
+      <c r="D21" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90" t="s">
+      <c r="E21" s="77"/>
+      <c r="F21" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="91"/>
-      <c r="H21" s="65" t="s">
+      <c r="G21" s="78"/>
+      <c r="H21" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="67"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63">
+      <c r="A22" s="59">
         <v>2</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="89" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90" t="s">
+      <c r="E22" s="77"/>
+      <c r="F22" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="65" t="s">
+      <c r="G22" s="78"/>
+      <c r="H22" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="81"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="139">
+      <c r="A23" s="65">
         <v>3</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="89" t="s">
+      <c r="C23" s="102"/>
+      <c r="D23" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90" t="s">
+      <c r="E23" s="77"/>
+      <c r="F23" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="65" t="s">
+      <c r="G23" s="78"/>
+      <c r="H23" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="67"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="81"/>
       <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64">
+      <c r="A24" s="65">
         <v>4</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="89" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90" t="s">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="91"/>
-      <c r="H24" s="65" t="s">
+      <c r="G24" s="78"/>
+      <c r="H24" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="67"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="122" t="s">
+    <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="66">
+        <v>5</v>
+      </c>
+      <c r="B25" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="93"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="147"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="64">
+        <v>6</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="93"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="147"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="17"/>
-    </row>
-    <row r="26" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="155">
         <v>1</v>
       </c>
-      <c r="B26" s="106" t="s">
+      <c r="B28" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="124"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="C28" s="157"/>
+      <c r="D28" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="107"/>
+      <c r="H28" s="152" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B29" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="17"/>
-    </row>
-    <row r="28" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="126" t="s">
+      <c r="C29" s="102"/>
+      <c r="D29" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="77"/>
+      <c r="H29" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="66">
+        <v>3</v>
+      </c>
+      <c r="B30" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="93"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="B31" s="115"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
         <v>1</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B32" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="17"/>
-    </row>
-    <row r="30" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
+      <c r="C32" s="90"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
         <v>2</v>
       </c>
-      <c r="B30" s="104" t="s">
+      <c r="B33" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="17"/>
-    </row>
-    <row r="31" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
+      <c r="C33" s="90"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
         <v>3</v>
       </c>
-      <c r="B31" s="104" t="s">
+      <c r="B34" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="17"/>
-    </row>
-    <row r="32" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="C34" s="90"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
         <v>4</v>
       </c>
-      <c r="B32" s="104" t="s">
+      <c r="B35" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="100" t="s">
+      <c r="C35" s="90"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="17"/>
-    </row>
-    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
         <v>1</v>
       </c>
-      <c r="B34" s="138" t="s">
+      <c r="B37" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-    </row>
-    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A35" s="27">
+      <c r="C37" s="99"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="26">
         <v>2</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B38" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="17"/>
-    </row>
-    <row r="36" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
+      <c r="C38" s="111"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
         <v>3</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B39" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="17"/>
-    </row>
-    <row r="37" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+      <c r="C39" s="89"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="28">
         <v>4</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B40" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="17"/>
-    </row>
-    <row r="38" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="100" t="s">
+      <c r="C40" s="91"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="17"/>
-    </row>
-    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="17"/>
+    </row>
+    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
         <v>1</v>
       </c>
-      <c r="B39" s="107" t="s">
+      <c r="B42" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-    </row>
-    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
-        <v>2</v>
-      </c>
-      <c r="B40" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="107"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-    </row>
-    <row r="41" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
-        <v>3</v>
-      </c>
-      <c r="B41" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-    </row>
-    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
-        <v>4</v>
-      </c>
-      <c r="B42" s="131" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="132"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -2299,13 +2369,22 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A43" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+    </row>
+    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <v>2</v>
+      </c>
+      <c r="B43" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="91"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -2313,12 +2392,23 @@
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
     <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="19"/>
+      <c r="A44" s="29">
+        <v>3</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="90"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -2327,9 +2417,13 @@
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="16">
+        <v>4</v>
+      </c>
+      <c r="B45" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="93"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -2339,11 +2433,11 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A46" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
+      <c r="A46" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="83"/>
+      <c r="C46" s="84"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2377,11 +2471,11 @@
       <c r="J48" s="17"/>
     </row>
     <row r="49" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A49" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
+      <c r="A49" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -2415,11 +2509,11 @@
       <c r="J51" s="17"/>
     </row>
     <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A52" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
+      <c r="A52" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -2429,13 +2523,9 @@
       <c r="J52" s="17"/>
     </row>
     <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A53" s="11">
-        <v>1</v>
-      </c>
-      <c r="B53" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="99"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -2444,97 +2534,90 @@
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="13"/>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A55" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="13"/>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A55" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>1</v>
+      </c>
+      <c r="B56" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="128"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="17"/>
-    </row>
-    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A58" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="100"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-    </row>
-    <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="30">
-        <v>1</v>
-      </c>
-      <c r="B59" s="133" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="134"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-    </row>
-    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A60" s="31">
-        <v>2</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="32"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="13"/>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A58" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="13"/>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
@@ -2544,32 +2627,32 @@
       <c r="J60" s="19"/>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="31">
-        <v>3</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A61" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="83"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
     </row>
-    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A62" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+    <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="29">
+        <v>1</v>
+      </c>
+      <c r="B62" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="95"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
@@ -2577,9 +2660,13 @@
       <c r="K62" s="17"/>
     </row>
     <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="30">
+        <v>2</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="31"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
@@ -2590,9 +2677,13 @@
       <c r="K63" s="17"/>
     </row>
     <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="30">
+        <v>3</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="31"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -2603,11 +2694,11 @@
       <c r="K64" s="17"/>
     </row>
     <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A65" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
+      <c r="A65" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -2618,13 +2709,9 @@
       <c r="K65" s="17"/>
     </row>
     <row r="66" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A66" s="32">
-        <v>1</v>
-      </c>
-      <c r="B66" s="133" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="135"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
@@ -2648,11 +2735,11 @@
       <c r="K67" s="17"/>
     </row>
     <row r="68" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A68" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
+      <c r="A68" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -2663,9 +2750,13 @@
       <c r="K68" s="17"/>
     </row>
     <row r="69" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69" s="31">
+        <v>1</v>
+      </c>
+      <c r="B69" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="96"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -2673,92 +2764,142 @@
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
+      <c r="K69" s="17"/>
     </row>
     <row r="70" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
     </row>
     <row r="71" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A71" s="100" t="s">
+      <c r="A71" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+    </row>
+    <row r="73" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A74" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
-    </row>
-    <row r="74" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A74" s="100" t="s">
+      <c r="B74" s="83"/>
+      <c r="C74" s="83"/>
+    </row>
+    <row r="77" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A77" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="100"/>
-      <c r="C74" s="101"/>
-    </row>
-    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="84"/>
+    </row>
+    <row r="78" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:P24"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A55:C55"/>
+  <mergeCells count="129">
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H25:P25"/>
+    <mergeCell ref="H26:P26"/>
+    <mergeCell ref="H28:P28"/>
+    <mergeCell ref="H29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="H21:P21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2777,56 +2918,54 @@
     <mergeCell ref="H11:P11"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H9:P9"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:P24"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A55:C55"/>
     <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H12:P12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H21:P21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H22:P22"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF89C2DE-81DE-2C4E-9A32-84C093A7834A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6C7119-82FA-3848-A6A0-C126F2E1803E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>if token is num, push to stack; if token is operator, perform an operation on 2 pops from stack</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -722,15 +725,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,6 +764,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,14 +843,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -797,25 +972,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -836,177 +1020,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1338,54 +1356,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="139"/>
       <c r="C1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="140"/>
+      <c r="F1" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="106"/>
+      <c r="G1" s="141"/>
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="114" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="82" t="s">
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
@@ -1394,11 +1412,11 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1411,18 +1429,18 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="117" t="s">
+      <c r="C5" s="121"/>
+      <c r="D5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117" t="s">
+      <c r="E5" s="137"/>
+      <c r="F5" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="117"/>
+      <c r="G5" s="137"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1438,57 +1456,57 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="120" t="s">
+      <c r="C6" s="121"/>
+      <c r="D6" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="117" t="s">
+      <c r="E6" s="118"/>
+      <c r="F6" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="121"/>
-      <c r="H6" s="118" t="s">
+      <c r="G6" s="138"/>
+      <c r="H6" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="120" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="117" t="s">
+      <c r="E7" s="118"/>
+      <c r="F7" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="118" t="s">
+      <c r="G7" s="138"/>
+      <c r="H7" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1497,29 +1515,29 @@
       <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="120" t="s">
+      <c r="C8" s="154"/>
+      <c r="D8" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="117" t="s">
+      <c r="E8" s="118"/>
+      <c r="F8" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122" t="s">
+      <c r="G8" s="138"/>
+      <c r="H8" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="124"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="84"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
@@ -1529,53 +1547,53 @@
         <v>56</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="134" t="s">
+      <c r="E9" s="118"/>
+      <c r="F9" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="79" t="s">
+      <c r="G9" s="98"/>
+      <c r="H9" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="81"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="100" t="s">
+      <c r="C10" s="120"/>
+      <c r="D10" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77" t="s">
+      <c r="E10" s="86"/>
+      <c r="F10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="80" t="s">
+      <c r="G10" s="98"/>
+      <c r="H10" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="81"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
@@ -1585,49 +1603,49 @@
         <v>60</v>
       </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126" t="s">
+      <c r="E11" s="95"/>
+      <c r="F11" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="133"/>
-      <c r="H11" s="80" t="s">
+      <c r="G11" s="96"/>
+      <c r="H11" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="81"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="101"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41">
         <v>8</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="139" t="s">
+      <c r="H12" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="141"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="113"/>
     </row>
     <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47">
@@ -1637,103 +1655,103 @@
         <v>68</v>
       </c>
       <c r="C13" s="48"/>
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143" t="s">
+      <c r="E13" s="115"/>
+      <c r="F13" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="144"/>
-      <c r="H13" s="136" t="s">
+      <c r="G13" s="116"/>
+      <c r="H13" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="138"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="110"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="70"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="67"/>
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="52">
         <v>1</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="108" t="s">
+      <c r="C15" s="129"/>
+      <c r="D15" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108" t="s">
+      <c r="E15" s="106"/>
+      <c r="F15" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="108"/>
-      <c r="H15" s="122" t="s">
+      <c r="G15" s="106"/>
+      <c r="H15" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="124"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="84"/>
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54">
         <v>2</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="112" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108" t="s">
+      <c r="E16" s="106"/>
+      <c r="F16" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="122" t="s">
+      <c r="G16" s="107"/>
+      <c r="H16" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="124"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1744,25 +1762,25 @@
         <v>75</v>
       </c>
       <c r="C17" s="50"/>
-      <c r="D17" s="112" t="s">
+      <c r="D17" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108" t="s">
+      <c r="E17" s="106"/>
+      <c r="F17" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="113"/>
-      <c r="H17" s="122" t="s">
+      <c r="G17" s="107"/>
+      <c r="H17" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="124"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="84"/>
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1773,25 +1791,25 @@
         <v>77</v>
       </c>
       <c r="C18" s="50"/>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108" t="s">
+      <c r="E18" s="106"/>
+      <c r="F18" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="122" t="s">
+      <c r="G18" s="107"/>
+      <c r="H18" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="124"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="84"/>
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1806,67 +1824,67 @@
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
-      <c r="H19" s="145" t="s">
+      <c r="H19" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="147"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="76"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="73"/>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="57">
         <v>1</v>
       </c>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="100" t="s">
+      <c r="C21" s="129"/>
+      <c r="D21" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77" t="s">
+      <c r="E21" s="86"/>
+      <c r="F21" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79" t="s">
+      <c r="G21" s="98"/>
+      <c r="H21" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="81"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1877,295 +1895,300 @@
         <v>84</v>
       </c>
       <c r="C22" s="58"/>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77" t="s">
+      <c r="E22" s="86"/>
+      <c r="F22" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79" t="s">
+      <c r="G22" s="98"/>
+      <c r="H22" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="81"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="101"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65">
+      <c r="A23" s="62">
         <v>3</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="100" t="s">
+      <c r="C23" s="121"/>
+      <c r="D23" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77" t="s">
+      <c r="E23" s="86"/>
+      <c r="F23" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79" t="s">
+      <c r="G23" s="98"/>
+      <c r="H23" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="81"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="101"/>
       <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65">
+      <c r="A24" s="62">
         <v>4</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="100" t="s">
+      <c r="C24" s="121"/>
+      <c r="D24" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77" t="s">
+      <c r="E24" s="86"/>
+      <c r="F24" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79" t="s">
+      <c r="G24" s="98"/>
+      <c r="H24" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="66">
+      <c r="A25" s="63">
         <v>5</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="145" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="147"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
       <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64">
+      <c r="A26" s="61">
         <v>6</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="145" t="s">
+      <c r="C26" s="88"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="147"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="70"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="67"/>
       <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="155">
+      <c r="A28" s="81">
         <v>1</v>
       </c>
-      <c r="B28" s="156" t="s">
+      <c r="B28" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="157"/>
-      <c r="D28" s="107" t="s">
+      <c r="C28" s="147"/>
+      <c r="D28" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107" t="s">
+      <c r="E28" s="118"/>
+      <c r="F28" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="107"/>
-      <c r="H28" s="152" t="s">
+      <c r="G28" s="118"/>
+      <c r="H28" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="154"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="77" t="s">
+      <c r="C29" s="121"/>
+      <c r="D29" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77" t="s">
+      <c r="E29" s="86"/>
+      <c r="F29" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="77"/>
-      <c r="H29" s="122" t="s">
+      <c r="G29" s="86"/>
+      <c r="H29" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="124"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="84"/>
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="66">
+      <c r="A30" s="76">
         <v>3</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="62"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="98"/>
+      <c r="H30" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="84"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="115" t="s">
+    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="75">
+        <v>4</v>
+      </c>
+      <c r="B31" s="161"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="115"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="17"/>
-    </row>
-    <row r="32" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
+      <c r="B32" s="149"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
         <v>1</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B33" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
-        <v>2</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
@@ -2174,41 +2197,40 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
+        <v>2</v>
+      </c>
+      <c r="B34" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="131"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24">
         <v>3</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B35" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="17"/>
-    </row>
-    <row r="35" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
-        <v>4</v>
-      </c>
-      <c r="B35" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="17"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
       <c r="H35" s="44"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
@@ -2220,16 +2242,18 @@
       <c r="P35" s="45"/>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+    <row r="36" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>4</v>
+      </c>
+      <c r="B36" s="130" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="131"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="44"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
@@ -2241,150 +2265,148 @@
       <c r="P36" s="45"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+    <row r="37" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="126"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
         <v>1</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B38" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-    </row>
-    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" s="26">
+      <c r="C38" s="160"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="26">
         <v>2</v>
       </c>
-      <c r="B38" s="111" t="s">
+      <c r="B39" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="17"/>
-    </row>
-    <row r="39" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27">
+      <c r="C39" s="132"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
         <v>3</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B40" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="17"/>
-    </row>
-    <row r="40" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="C40" s="130"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28">
         <v>4</v>
       </c>
-      <c r="B40" s="91" t="s">
+      <c r="B41" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="17"/>
-    </row>
-    <row r="41" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
+      <c r="C41" s="133"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="28">
+    <row r="42" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="17"/>
+    </row>
+    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
         <v>1</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B43" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-    </row>
-    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
-        <v>2</v>
-      </c>
-      <c r="B43" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="91"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -2400,44 +2422,53 @@
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
     </row>
-    <row r="44" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A44" s="29">
+    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
+        <v>2</v>
+      </c>
+      <c r="B44" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="133"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+    </row>
+    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A45" s="29">
         <v>3</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B45" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-    </row>
-    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="C45" s="131"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
         <v>4</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B46" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="93"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A46" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="84"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2446,36 +2477,36 @@
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-    </row>
-    <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A47" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="126"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A49" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -2484,36 +2515,36 @@
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-    </row>
-    <row r="51" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A50" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A52" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -2522,36 +2553,36 @@
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-    </row>
-    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A53" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-    </row>
-    <row r="55" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A55" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+    </row>
+    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -2560,96 +2591,93 @@
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
     </row>
-    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A56" s="11">
+    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A56" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
         <v>1</v>
       </c>
-      <c r="B56" s="127" t="s">
+      <c r="B57" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="128"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-    </row>
-    <row r="57" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="148"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="13"/>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A58" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="135"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="103"/>
       <c r="H58" s="13"/>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
+    <row r="59" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A59" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="126"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="13"/>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="17"/>
-    </row>
-    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A61" s="83" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A62" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-    </row>
-    <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="29">
-        <v>1</v>
-      </c>
-      <c r="B62" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="95"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="127"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -2659,46 +2687,48 @@
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
     </row>
-    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A63" s="30">
+    <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="29">
+        <v>1</v>
+      </c>
+      <c r="B63" s="155" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="156"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+    </row>
+    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
         <v>2</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B64" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="17"/>
-    </row>
-    <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
+      <c r="C64" s="31"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
         <v>3</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B65" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-    </row>
-    <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A65" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -2708,38 +2738,38 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
+    <row r="66" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A66" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="126"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A68" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
+    <row r="68" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -2749,42 +2779,42 @@
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
     </row>
-    <row r="69" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A69" s="31">
+    <row r="69" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A69" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="126"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A70" s="31">
         <v>1</v>
       </c>
-      <c r="B69" s="94" t="s">
+      <c r="B70" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="96"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="17"/>
-    </row>
-    <row r="70" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="C70" s="157"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
       <c r="K70" s="17"/>
     </row>
-    <row r="71" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A71" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
+    <row r="71" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
@@ -2794,112 +2824,118 @@
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-    </row>
-    <row r="73" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A72" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="126"/>
+      <c r="C72" s="126"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+    </row>
+    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A74" s="83" t="s">
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+    </row>
+    <row r="74" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A75" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-    </row>
-    <row r="77" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A77" s="83" t="s">
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+    </row>
+    <row r="78" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A78" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="83"/>
-      <c r="C77" s="84"/>
-    </row>
-    <row r="78" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="126"/>
+      <c r="C78" s="127"/>
     </row>
     <row r="79" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
+    <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="129">
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H25:P25"/>
-    <mergeCell ref="H26:P26"/>
-    <mergeCell ref="H28:P28"/>
-    <mergeCell ref="H29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H12:P12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H21:P21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H22:P22"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B35:C35"/>
+  <mergeCells count="133">
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A42:C42"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H30:P30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2918,54 +2954,67 @@
     <mergeCell ref="H11:P11"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H9:P9"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="H21:P21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H25:P25"/>
+    <mergeCell ref="H26:P26"/>
+    <mergeCell ref="H28:P28"/>
+    <mergeCell ref="H29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="H24:P24"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6C7119-82FA-3848-A6A0-C126F2E1803E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314B9BFF-AAB6-0C42-BFBA-D766B2C7DB25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>if token is num, push to stack; if token is operator, perform an operation on 2 pops from stack</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
   </si>
 </sst>
 </file>
@@ -568,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -761,13 +767,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -779,30 +867,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -813,6 +1014,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -822,209 +1026,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1340,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,54 +1365,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="139"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="141"/>
+      <c r="G1" s="111"/>
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="148" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="134" t="s">
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
@@ -1412,11 +1421,11 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1429,18 +1438,18 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="137" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137" t="s">
+      <c r="E5" s="123"/>
+      <c r="F5" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="137"/>
+      <c r="G5" s="123"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1456,57 +1465,57 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="122" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="137" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="135" t="s">
+      <c r="G6" s="129"/>
+      <c r="H6" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="137" t="s">
+      <c r="E7" s="112"/>
+      <c r="F7" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="138"/>
-      <c r="H7" s="135" t="s">
+      <c r="G7" s="129"/>
+      <c r="H7" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1515,29 +1524,29 @@
       <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="122" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="137" t="s">
+      <c r="E8" s="112"/>
+      <c r="F8" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="138"/>
-      <c r="H8" s="82" t="s">
+      <c r="G8" s="129"/>
+      <c r="H8" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="84"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
@@ -1547,53 +1556,53 @@
         <v>56</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="97" t="s">
+      <c r="E9" s="112"/>
+      <c r="F9" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99" t="s">
+      <c r="G9" s="102"/>
+      <c r="H9" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="101"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="131"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="85" t="s">
+      <c r="C10" s="103"/>
+      <c r="D10" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86" t="s">
+      <c r="E10" s="101"/>
+      <c r="F10" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="100" t="s">
+      <c r="G10" s="102"/>
+      <c r="H10" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="131"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
@@ -1603,49 +1612,49 @@
         <v>60</v>
       </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95" t="s">
+      <c r="E11" s="134"/>
+      <c r="F11" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="96"/>
-      <c r="H11" s="100" t="s">
+      <c r="G11" s="142"/>
+      <c r="H11" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="101"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="131"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41">
         <v>8</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="113"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47">
@@ -1655,32 +1664,32 @@
         <v>68</v>
       </c>
       <c r="C13" s="48"/>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115" t="s">
+      <c r="E13" s="152"/>
+      <c r="F13" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="116"/>
-      <c r="H13" s="108" t="s">
+      <c r="G13" s="153"/>
+      <c r="H13" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="110"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="147"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="64"/>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
@@ -1700,58 +1709,58 @@
       <c r="A15" s="52">
         <v>1</v>
       </c>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="106" t="s">
+      <c r="C15" s="138"/>
+      <c r="D15" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106" t="s">
+      <c r="E15" s="113"/>
+      <c r="F15" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="82" t="s">
+      <c r="G15" s="113"/>
+      <c r="H15" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="107"/>
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54">
         <v>2</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="105" t="s">
+      <c r="C16" s="138"/>
+      <c r="D16" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106" t="s">
+      <c r="E16" s="113"/>
+      <c r="F16" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="82" t="s">
+      <c r="G16" s="119"/>
+      <c r="H16" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="84"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="107"/>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1762,25 +1771,25 @@
         <v>75</v>
       </c>
       <c r="C17" s="50"/>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106" t="s">
+      <c r="E17" s="113"/>
+      <c r="F17" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="82" t="s">
+      <c r="G17" s="119"/>
+      <c r="H17" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="84"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="107"/>
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1791,25 +1800,25 @@
         <v>77</v>
       </c>
       <c r="C18" s="50"/>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106" t="s">
+      <c r="E18" s="113"/>
+      <c r="F18" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="82" t="s">
+      <c r="G18" s="119"/>
+      <c r="H18" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="84"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="107"/>
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1824,25 +1833,25 @@
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
-      <c r="H19" s="89" t="s">
+      <c r="H19" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="91"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="156"/>
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="144"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="68"/>
       <c r="E20" s="69"/>
       <c r="F20" s="69"/>
@@ -1862,29 +1871,29 @@
       <c r="A21" s="57">
         <v>1</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="85" t="s">
+      <c r="C21" s="138"/>
+      <c r="D21" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86" t="s">
+      <c r="E21" s="101"/>
+      <c r="F21" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99" t="s">
+      <c r="G21" s="102"/>
+      <c r="H21" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="101"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="131"/>
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1895,146 +1904,146 @@
         <v>84</v>
       </c>
       <c r="C22" s="58"/>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86" t="s">
+      <c r="E22" s="101"/>
+      <c r="F22" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99" t="s">
+      <c r="G22" s="102"/>
+      <c r="H22" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="131"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62">
         <v>3</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="85" t="s">
+      <c r="C23" s="104"/>
+      <c r="D23" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86" t="s">
+      <c r="E23" s="101"/>
+      <c r="F23" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99" t="s">
+      <c r="G23" s="102"/>
+      <c r="H23" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="101"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="131"/>
       <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62">
         <v>4</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="85" t="s">
+      <c r="C24" s="104"/>
+      <c r="D24" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86" t="s">
+      <c r="E24" s="101"/>
+      <c r="F24" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99" t="s">
+      <c r="G24" s="102"/>
+      <c r="H24" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="131"/>
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63">
         <v>5</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="88"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="156"/>
       <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61">
         <v>6</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="88"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
-      <c r="H26" s="89" t="s">
+      <c r="H26" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="156"/>
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="80"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="75"/>
       <c r="I27" s="66"/>
       <c r="J27" s="66"/>
       <c r="K27" s="66"/>
@@ -2046,171 +2055,178 @@
       <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="81">
+      <c r="A28" s="76">
         <v>1</v>
       </c>
-      <c r="B28" s="146" t="s">
+      <c r="B28" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="118" t="s">
+      <c r="C28" s="117"/>
+      <c r="D28" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118" t="s">
+      <c r="E28" s="112"/>
+      <c r="F28" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="118"/>
-      <c r="H28" s="92" t="s">
+      <c r="G28" s="112"/>
+      <c r="H28" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="160"/>
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="86" t="s">
+      <c r="C29" s="104"/>
+      <c r="D29" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86" t="s">
+      <c r="E29" s="101"/>
+      <c r="F29" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="82" t="s">
+      <c r="G29" s="101"/>
+      <c r="H29" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="84"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="107"/>
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="76">
+      <c r="A30" s="74">
         <v>3</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="85" t="s">
+      <c r="C30" s="104"/>
+      <c r="D30" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86" t="s">
+      <c r="E30" s="101"/>
+      <c r="F30" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="82" t="s">
+      <c r="G30" s="102"/>
+      <c r="H30" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="84"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="107"/>
       <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="75">
+      <c r="A31" s="161">
         <v>4</v>
       </c>
-      <c r="B31" s="161"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="79"/>
+      <c r="B31" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="163"/>
+      <c r="D31" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="102"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="107"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="149" t="s">
+    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="81">
         <v>5</v>
       </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="45"/>
+      <c r="B32" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="93"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="79"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
+    <row r="33" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="121"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
         <v>1</v>
       </c>
-      <c r="B33" s="130" t="s">
+      <c r="B34" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="17"/>
-    </row>
-    <row r="34" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
-        <v>2</v>
-      </c>
-      <c r="B34" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="131"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
@@ -2219,41 +2235,40 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="17"/>
     </row>
-    <row r="35" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
+        <v>2</v>
+      </c>
+      <c r="B35" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="90"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24">
         <v>3</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B36" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="131"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="17"/>
-    </row>
-    <row r="36" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
-        <v>4</v>
-      </c>
-      <c r="B36" s="130" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="17"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
       <c r="H36" s="44"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
@@ -2265,16 +2280,18 @@
       <c r="P36" s="45"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="126"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+    <row r="37" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>4</v>
+      </c>
+      <c r="B37" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="44"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
@@ -2286,150 +2303,148 @@
       <c r="P37" s="45"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+    <row r="38" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
         <v>1</v>
       </c>
-      <c r="B38" s="160" t="s">
+      <c r="B39" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="160"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-    </row>
-    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" s="26">
+      <c r="C39" s="99"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="26">
         <v>2</v>
       </c>
-      <c r="B39" s="132" t="s">
+      <c r="B40" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="17"/>
-    </row>
-    <row r="40" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27">
+      <c r="C40" s="141"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
         <v>3</v>
       </c>
-      <c r="B40" s="130" t="s">
+      <c r="B41" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="130"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="17"/>
-    </row>
-    <row r="41" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+      <c r="C41" s="89"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="17"/>
+    </row>
+    <row r="42" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28">
         <v>4</v>
       </c>
-      <c r="B41" s="133" t="s">
+      <c r="B42" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="133"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="17"/>
-    </row>
-    <row r="42" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="126" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
       <c r="Q42" s="17"/>
     </row>
-    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+    <row r="43" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="17"/>
+    </row>
+    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
         <v>1</v>
       </c>
-      <c r="B43" s="133" t="s">
+      <c r="B44" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="133"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-    </row>
-    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
-        <v>2</v>
-      </c>
-      <c r="B44" s="133" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="133"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -2445,44 +2460,53 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A45" s="29">
+    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>2</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="91"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+    </row>
+    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A46" s="29">
         <v>3</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B46" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="131"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-    </row>
-    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="C46" s="90"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
         <v>4</v>
       </c>
-      <c r="B46" s="87" t="s">
+      <c r="B47" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A47" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="126"/>
-      <c r="C47" s="127"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -2491,36 +2515,36 @@
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-    </row>
-    <row r="49" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A48" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="83"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A50" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+    </row>
+    <row r="50" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -2529,36 +2553,36 @@
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-    </row>
-    <row r="52" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A51" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A53" s="126" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+    </row>
+    <row r="53" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -2567,36 +2591,36 @@
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-    </row>
-    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A54" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="1:17" ht="26" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-    </row>
-    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A56" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -2605,96 +2629,93 @@
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
     </row>
-    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A57" s="11">
+    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A57" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
         <v>1</v>
       </c>
-      <c r="B57" s="124" t="s">
+      <c r="B58" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="125"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-    </row>
-    <row r="58" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="13"/>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A59" s="126" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="126"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="103"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+    </row>
+    <row r="59" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="144"/>
       <c r="H59" s="13"/>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
+    <row r="60" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A60" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="13"/>
       <c r="Q60" s="13"/>
     </row>
-    <row r="61" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="17"/>
-    </row>
-    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A62" s="126" t="s">
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="17"/>
+    </row>
+    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A63" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="126"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-    </row>
-    <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="29">
-        <v>1</v>
-      </c>
-      <c r="B63" s="155" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="156"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="84"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -2704,46 +2725,48 @@
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
+    <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="29">
+        <v>1</v>
+      </c>
+      <c r="B64" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="95"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
         <v>2</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B65" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="17"/>
-    </row>
-    <row r="65" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A65" s="30">
+      <c r="C65" s="31"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
         <v>3</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B66" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-    </row>
-    <row r="66" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A66" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="126"/>
-      <c r="C66" s="126"/>
+      <c r="C66" s="31"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -2753,38 +2776,38 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
+    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A67" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
       <c r="K68" s="17"/>
     </row>
-    <row r="69" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A69" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="126"/>
-      <c r="C69" s="126"/>
+    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -2794,42 +2817,42 @@
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
     </row>
-    <row r="70" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A70" s="31">
+    <row r="70" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A70" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="83"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+    </row>
+    <row r="71" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A71" s="31">
         <v>1</v>
       </c>
-      <c r="B70" s="155" t="s">
+      <c r="B71" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="157"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="17"/>
-    </row>
-    <row r="71" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A72" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="126"/>
-      <c r="C72" s="126"/>
+    <row r="72" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
@@ -2839,103 +2862,135 @@
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-    </row>
-    <row r="74" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A73" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A75" s="126" t="s">
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+    </row>
+    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A76" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="126"/>
-      <c r="C75" s="126"/>
-    </row>
-    <row r="78" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A78" s="126" t="s">
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+    </row>
+    <row r="79" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A79" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="126"/>
-      <c r="C78" s="127"/>
-    </row>
-    <row r="79" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="84"/>
     </row>
     <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
+    <row r="81" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="133">
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H30:P30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F24:G24"/>
+  <mergeCells count="137">
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:P31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H25:P25"/>
+    <mergeCell ref="H26:P26"/>
+    <mergeCell ref="H28:P28"/>
+    <mergeCell ref="H29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H24:P24"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="H21:P21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2954,67 +3009,54 @@
     <mergeCell ref="H11:P11"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H9:P9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H12:P12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H21:P21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H22:P22"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H25:P25"/>
-    <mergeCell ref="H26:P26"/>
-    <mergeCell ref="H28:P28"/>
-    <mergeCell ref="H29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H24:P24"/>
-    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H30:P30"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314B9BFF-AAB6-0C42-BFBA-D766B2C7DB25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6ACBC6-EE8B-AC49-8629-F9135348AFED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>T: O(2^n)</t>
+  </si>
+  <si>
+    <t>use DFS; if left == right == n: the str is completed, add it to res; if left &lt; n: add '(' to str and continue dfs with left+1; if right &lt; left: add ')' to str and continue dfs with right+1</t>
+  </si>
+  <si>
+    <t>(1)add cur_temp_ind to the stack until u find a temp that is higher than the stack[-1] temp, (2)in this case u pop from the stack and add to the ans the diff(cur_temp_ind, pop_ind) on the pop_ind, repeat (2)</t>
   </si>
 </sst>
 </file>
@@ -574,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -774,6 +783,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -783,20 +804,179 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,25 +984,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -841,198 +1030,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1352,7 +1349,7 @@
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="H32" sqref="H32:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,54 +1362,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="109"/>
+      <c r="B1" s="138"/>
       <c r="C1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111" t="s">
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="111"/>
+      <c r="G1" s="140"/>
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="82" t="s">
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
@@ -1421,11 +1418,11 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1438,18 +1435,18 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="123" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123" t="s">
+      <c r="E5" s="136"/>
+      <c r="F5" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="123"/>
+      <c r="G5" s="136"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1465,57 +1462,57 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="128" t="s">
+      <c r="C6" s="94"/>
+      <c r="D6" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="123" t="s">
+      <c r="E6" s="117"/>
+      <c r="F6" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="126" t="s">
+      <c r="G6" s="137"/>
+      <c r="H6" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="128" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="123" t="s">
+      <c r="E7" s="117"/>
+      <c r="F7" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="126" t="s">
+      <c r="G7" s="137"/>
+      <c r="H7" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1524,29 +1521,29 @@
       <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="128" t="s">
+      <c r="C8" s="153"/>
+      <c r="D8" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="123" t="s">
+      <c r="E8" s="117"/>
+      <c r="F8" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="129"/>
-      <c r="H8" s="105" t="s">
+      <c r="G8" s="137"/>
+      <c r="H8" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="83"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
@@ -1556,53 +1553,53 @@
         <v>56</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="143" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="132" t="s">
+      <c r="G9" s="80"/>
+      <c r="H9" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="131"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="97"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="100" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101" t="s">
+      <c r="E10" s="79"/>
+      <c r="F10" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="130" t="s">
+      <c r="G10" s="80"/>
+      <c r="H10" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="131"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="97"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
@@ -1612,49 +1609,49 @@
         <v>60</v>
       </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134" t="s">
+      <c r="E11" s="98"/>
+      <c r="F11" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="130" t="s">
+      <c r="G11" s="99"/>
+      <c r="H11" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="131"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="97"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41">
         <v>8</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="149"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="149"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="150"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="112"/>
     </row>
     <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47">
@@ -1664,32 +1661,32 @@
         <v>68</v>
       </c>
       <c r="C13" s="48"/>
-      <c r="D13" s="151" t="s">
+      <c r="D13" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152" t="s">
+      <c r="E13" s="114"/>
+      <c r="F13" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="153"/>
-      <c r="H13" s="145" t="s">
+      <c r="G13" s="115"/>
+      <c r="H13" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="147"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="64"/>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
@@ -1709,58 +1706,58 @@
       <c r="A15" s="52">
         <v>1</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="113" t="s">
+      <c r="C15" s="126"/>
+      <c r="D15" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="113"/>
-      <c r="H15" s="105" t="s">
+      <c r="G15" s="105"/>
+      <c r="H15" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="107"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="83"/>
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54">
         <v>2</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="138"/>
-      <c r="D16" s="118" t="s">
+      <c r="C16" s="126"/>
+      <c r="D16" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113" t="s">
+      <c r="E16" s="105"/>
+      <c r="F16" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="119"/>
-      <c r="H16" s="105" t="s">
+      <c r="G16" s="106"/>
+      <c r="H16" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="107"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="83"/>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1771,25 +1768,25 @@
         <v>75</v>
       </c>
       <c r="C17" s="50"/>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113" t="s">
+      <c r="E17" s="105"/>
+      <c r="F17" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="119"/>
-      <c r="H17" s="105" t="s">
+      <c r="G17" s="106"/>
+      <c r="H17" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="107"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="83"/>
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1800,25 +1797,25 @@
         <v>77</v>
       </c>
       <c r="C18" s="50"/>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113" t="s">
+      <c r="E18" s="105"/>
+      <c r="F18" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="119"/>
-      <c r="H18" s="105" t="s">
+      <c r="G18" s="106"/>
+      <c r="H18" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="107"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="83"/>
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1833,25 +1830,25 @@
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
-      <c r="H19" s="154" t="s">
+      <c r="H19" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="156"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="89"/>
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="68"/>
       <c r="E20" s="69"/>
       <c r="F20" s="69"/>
@@ -1871,29 +1868,29 @@
       <c r="A21" s="57">
         <v>1</v>
       </c>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="100" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101" t="s">
+      <c r="E21" s="79"/>
+      <c r="F21" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="132" t="s">
+      <c r="G21" s="80"/>
+      <c r="H21" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="131"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="97"/>
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1904,145 +1901,145 @@
         <v>84</v>
       </c>
       <c r="C22" s="58"/>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101" t="s">
+      <c r="E22" s="79"/>
+      <c r="F22" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="132" t="s">
+      <c r="G22" s="80"/>
+      <c r="H22" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="131"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="97"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62">
         <v>3</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="100" t="s">
+      <c r="C23" s="94"/>
+      <c r="D23" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101" t="s">
+      <c r="E23" s="79"/>
+      <c r="F23" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="102"/>
-      <c r="H23" s="132" t="s">
+      <c r="G23" s="80"/>
+      <c r="H23" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="131"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="97"/>
       <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62">
         <v>4</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="100" t="s">
+      <c r="C24" s="94"/>
+      <c r="D24" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101" t="s">
+      <c r="E24" s="79"/>
+      <c r="F24" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="132" t="s">
+      <c r="G24" s="80"/>
+      <c r="H24" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="131"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="97"/>
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63">
         <v>5</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
-      <c r="H25" s="154" t="s">
+      <c r="H25" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="156"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="89"/>
       <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61">
         <v>6</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="93"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
-      <c r="H26" s="154" t="s">
+      <c r="H26" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="156"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="89"/>
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="75"/>
       <c r="I27" s="66"/>
       <c r="J27" s="66"/>
@@ -2058,149 +2055,157 @@
       <c r="A28" s="76">
         <v>1</v>
       </c>
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="112" t="s">
+      <c r="C28" s="146"/>
+      <c r="D28" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112" t="s">
+      <c r="E28" s="117"/>
+      <c r="F28" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="112"/>
-      <c r="H28" s="158" t="s">
+      <c r="G28" s="117"/>
+      <c r="H28" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="160"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="92"/>
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="101" t="s">
+      <c r="C29" s="94"/>
+      <c r="D29" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101" t="s">
+      <c r="E29" s="79"/>
+      <c r="F29" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="101"/>
-      <c r="H29" s="105" t="s">
+      <c r="G29" s="79"/>
+      <c r="H29" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="107"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="83"/>
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="74">
         <v>3</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="100" t="s">
+      <c r="C30" s="94"/>
+      <c r="D30" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101" t="s">
+      <c r="E30" s="79"/>
+      <c r="F30" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="102"/>
-      <c r="H30" s="105" t="s">
+      <c r="G30" s="80"/>
+      <c r="H30" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="107"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="83"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="161">
+    <row r="31" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="77">
         <v>4</v>
       </c>
-      <c r="B31" s="162" t="s">
+      <c r="B31" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="163"/>
-      <c r="D31" s="100" t="s">
+      <c r="C31" s="132"/>
+      <c r="D31" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78">
+        <v>5</v>
+      </c>
+      <c r="B32" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="132"/>
+      <c r="D32" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101" t="s">
+      <c r="E32" s="79"/>
+      <c r="F32" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="102"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="17"/>
-    </row>
-    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="81">
+      <c r="G32" s="80"/>
+      <c r="H32" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
       <c r="H33" s="44"/>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
@@ -2216,10 +2221,10 @@
       <c r="A34" s="24">
         <v>1</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="90"/>
+      <c r="C34" s="128"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
@@ -2239,14 +2244,14 @@
       <c r="A35" s="24">
         <v>2</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -2261,14 +2266,14 @@
       <c r="A36" s="24">
         <v>3</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="44"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
@@ -2284,10 +2289,10 @@
       <c r="A37" s="23">
         <v>4</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="90"/>
+      <c r="C37" s="128"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -2304,11 +2309,11 @@
       <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="124"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
@@ -2328,10 +2333,10 @@
       <c r="A39" s="25">
         <v>1</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="99"/>
+      <c r="C39" s="159"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -2351,14 +2356,14 @@
       <c r="A40" s="26">
         <v>2</v>
       </c>
-      <c r="B40" s="141" t="s">
+      <c r="B40" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="141"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
@@ -2374,14 +2379,14 @@
       <c r="A41" s="27">
         <v>3</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="38"/>
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
@@ -2397,10 +2402,10 @@
       <c r="A42" s="28">
         <v>4</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="91"/>
+      <c r="C42" s="130"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
@@ -2417,11 +2422,11 @@
       <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
@@ -2441,10 +2446,10 @@
       <c r="A44" s="28">
         <v>1</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="91"/>
+      <c r="C44" s="130"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -2464,10 +2469,10 @@
       <c r="A45" s="27">
         <v>2</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="91"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -2487,10 +2492,10 @@
       <c r="A46" s="29">
         <v>3</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="90"/>
+      <c r="C46" s="128"/>
       <c r="D46" s="18"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
@@ -2503,10 +2508,10 @@
       <c r="A47" s="16">
         <v>4</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="93"/>
+      <c r="C47" s="85"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -2516,11 +2521,11 @@
       <c r="J47" s="17"/>
     </row>
     <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="83"/>
-      <c r="C48" s="84"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="124"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -2554,11 +2559,11 @@
       <c r="J50" s="17"/>
     </row>
     <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
+      <c r="B51" s="123"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -2592,11 +2597,11 @@
       <c r="J53" s="17"/>
     </row>
     <row r="54" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -2630,11 +2635,11 @@
       <c r="J56" s="17"/>
     </row>
     <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -2647,10 +2652,10 @@
       <c r="A58" s="11">
         <v>1</v>
       </c>
-      <c r="B58" s="135" t="s">
+      <c r="B58" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="136"/>
+      <c r="C58" s="122"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
@@ -2663,23 +2668,23 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="144"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="102"/>
       <c r="H59" s="13"/>
       <c r="Q59" s="13"/>
     </row>
     <row r="60" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="144"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="102"/>
       <c r="H60" s="13"/>
       <c r="Q60" s="13"/>
     </row>
@@ -2711,11 +2716,11 @@
       <c r="K62" s="17"/>
     </row>
     <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A63" s="83" t="s">
+      <c r="A63" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="83"/>
-      <c r="C63" s="84"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="124"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -2729,10 +2734,10 @@
       <c r="A64" s="29">
         <v>1</v>
       </c>
-      <c r="B64" s="94" t="s">
+      <c r="B64" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="95"/>
+      <c r="C64" s="155"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -2777,11 +2782,11 @@
       <c r="K66" s="17"/>
     </row>
     <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A67" s="83" t="s">
+      <c r="A67" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
@@ -2818,11 +2823,11 @@
       <c r="K69" s="17"/>
     </row>
     <row r="70" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
@@ -2836,10 +2841,10 @@
       <c r="A71" s="31">
         <v>1</v>
       </c>
-      <c r="B71" s="94" t="s">
+      <c r="B71" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="96"/>
+      <c r="C71" s="156"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -2863,11 +2868,11 @@
       <c r="K72" s="17"/>
     </row>
     <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
@@ -2895,18 +2900,18 @@
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
+      <c r="B76" s="123"/>
+      <c r="C76" s="123"/>
     </row>
     <row r="79" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A79" s="83" t="s">
+      <c r="A79" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="83"/>
-      <c r="C79" s="84"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="124"/>
     </row>
     <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
@@ -2919,24 +2924,103 @@
       <c r="C81" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:P31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H25:P25"/>
-    <mergeCell ref="H26:P26"/>
-    <mergeCell ref="H28:P28"/>
-    <mergeCell ref="H29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H24:P24"/>
-    <mergeCell ref="F30:G30"/>
+  <mergeCells count="140">
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H30:P30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:P7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:P16"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:P8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="H11:P11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H23:P23"/>
@@ -2961,102 +3045,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="F59:G59"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H6:P6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:P7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:P16"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:P8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="H11:P11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H30:P30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:P31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H25:P25"/>
+    <mergeCell ref="H26:P26"/>
+    <mergeCell ref="H28:P28"/>
+    <mergeCell ref="H29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H24:P24"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:P32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6ACBC6-EE8B-AC49-8629-F9135348AFED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D31A8F-8180-9D4C-93AD-B2093CA11A32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -333,13 +333,25 @@
     <t>Daily Temperatures</t>
   </si>
   <si>
-    <t>T: O(2^n)</t>
-  </si>
-  <si>
     <t>use DFS; if left == right == n: the str is completed, add it to res; if left &lt; n: add '(' to str and continue dfs with left+1; if right &lt; left: add ')' to str and continue dfs with right+1</t>
   </si>
   <si>
     <t>(1)add cur_temp_ind to the stack until u find a temp that is higher than the stack[-1] temp, (2)in this case u pop from the stack and add to the ans the diff(cur_temp_ind, pop_ind) on the pop_ind, repeat (2)</t>
+  </si>
+  <si>
+    <t>T: O(V+E)</t>
+  </si>
+  <si>
+    <t>Car Fleet</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>T: O(nlogn)</t>
+  </si>
+  <si>
+    <t>sort pos, speed; for each car calculate left distance and left time to get to dest; then if cur car takes longer time to get to dest than the prev one, make prev=cur, increase car fleet</t>
   </si>
 </sst>
 </file>
@@ -583,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -786,8 +798,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,14 +831,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -943,12 +967,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1346,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:P32"/>
+      <selection activeCell="F38" sqref="F38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,54 +1380,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="138"/>
+      <c r="B1" s="140"/>
       <c r="C1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140" t="s">
+      <c r="E1" s="141"/>
+      <c r="F1" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="140"/>
+      <c r="G1" s="142"/>
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="147" t="s">
+      <c r="C2" s="135"/>
+      <c r="D2" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="133" t="s">
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
@@ -1418,11 +1436,11 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1435,18 +1453,18 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="136" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136" t="s">
+      <c r="E5" s="138"/>
+      <c r="F5" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="136"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1462,57 +1480,57 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="119" t="s">
+      <c r="C6" s="98"/>
+      <c r="D6" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="136" t="s">
+      <c r="E6" s="121"/>
+      <c r="F6" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="134" t="s">
+      <c r="G6" s="139"/>
+      <c r="H6" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="119" t="s">
+      <c r="C7" s="98"/>
+      <c r="D7" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="136" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="137"/>
-      <c r="H7" s="134" t="s">
+      <c r="G7" s="139"/>
+      <c r="H7" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1521,29 +1539,29 @@
       <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="153"/>
-      <c r="D8" s="119" t="s">
+      <c r="C8" s="155"/>
+      <c r="D8" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="136" t="s">
+      <c r="E8" s="121"/>
+      <c r="F8" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="137"/>
-      <c r="H8" s="81" t="s">
+      <c r="G8" s="139"/>
+      <c r="H8" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="88"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
@@ -1553,53 +1571,53 @@
         <v>56</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="100" t="s">
+      <c r="E9" s="121"/>
+      <c r="F9" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="95" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="86" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="96" t="s">
+      <c r="G10" s="85"/>
+      <c r="H10" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
@@ -1609,49 +1627,49 @@
         <v>60</v>
       </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98" t="s">
+      <c r="E11" s="102"/>
+      <c r="F11" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="96" t="s">
+      <c r="G11" s="103"/>
+      <c r="H11" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="97"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="101"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41">
         <v>8</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="158"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="112"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="116"/>
     </row>
     <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47">
@@ -1661,32 +1679,32 @@
         <v>68</v>
       </c>
       <c r="C13" s="48"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114" t="s">
+      <c r="E13" s="118"/>
+      <c r="F13" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="115"/>
-      <c r="H13" s="107" t="s">
+      <c r="G13" s="119"/>
+      <c r="H13" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="109"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="113"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="143"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="145"/>
       <c r="D14" s="64"/>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
@@ -1706,58 +1724,58 @@
       <c r="A15" s="52">
         <v>1</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="105" t="s">
+      <c r="C15" s="130"/>
+      <c r="D15" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105" t="s">
+      <c r="E15" s="109"/>
+      <c r="F15" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="81" t="s">
+      <c r="G15" s="109"/>
+      <c r="H15" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="83"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="88"/>
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54">
         <v>2</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="104" t="s">
+      <c r="C16" s="130"/>
+      <c r="D16" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105" t="s">
+      <c r="E16" s="109"/>
+      <c r="F16" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="81" t="s">
+      <c r="G16" s="110"/>
+      <c r="H16" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="83"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="88"/>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1768,25 +1786,25 @@
         <v>75</v>
       </c>
       <c r="C17" s="50"/>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105" t="s">
+      <c r="E17" s="109"/>
+      <c r="F17" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="81" t="s">
+      <c r="G17" s="110"/>
+      <c r="H17" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="83"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1797,25 +1815,25 @@
         <v>77</v>
       </c>
       <c r="C18" s="50"/>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105" t="s">
+      <c r="E18" s="109"/>
+      <c r="F18" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="106"/>
-      <c r="H18" s="81" t="s">
+      <c r="G18" s="110"/>
+      <c r="H18" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="83"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1830,25 +1848,25 @@
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="89"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="145"/>
       <c r="D20" s="68"/>
       <c r="E20" s="69"/>
       <c r="F20" s="69"/>
@@ -1868,29 +1886,29 @@
       <c r="A21" s="57">
         <v>1</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="86" t="s">
+      <c r="C21" s="130"/>
+      <c r="D21" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="E21" s="84"/>
+      <c r="F21" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="95" t="s">
+      <c r="G21" s="85"/>
+      <c r="H21" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="97"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1901,145 +1919,145 @@
         <v>84</v>
       </c>
       <c r="C22" s="58"/>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79" t="s">
+      <c r="E22" s="84"/>
+      <c r="F22" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="95" t="s">
+      <c r="G22" s="85"/>
+      <c r="H22" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="97"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="101"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62">
         <v>3</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="86" t="s">
+      <c r="C23" s="98"/>
+      <c r="D23" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79" t="s">
+      <c r="E23" s="84"/>
+      <c r="F23" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="95" t="s">
+      <c r="G23" s="85"/>
+      <c r="H23" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="97"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="101"/>
       <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62">
         <v>4</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="86" t="s">
+      <c r="C24" s="98"/>
+      <c r="D24" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79" t="s">
+      <c r="E24" s="84"/>
+      <c r="F24" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="80"/>
-      <c r="H24" s="95" t="s">
+      <c r="G24" s="85"/>
+      <c r="H24" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="97"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63">
         <v>5</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="85"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
-      <c r="H25" s="87" t="s">
+      <c r="H25" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="89"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
       <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61">
         <v>6</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="85"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
-      <c r="H26" s="87" t="s">
+      <c r="H26" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="89"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
       <c r="H27" s="75"/>
       <c r="I27" s="66"/>
       <c r="J27" s="66"/>
@@ -2055,269 +2073,279 @@
       <c r="A28" s="76">
         <v>1</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="117" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117" t="s">
+      <c r="E28" s="121"/>
+      <c r="F28" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="117"/>
-      <c r="H28" s="90" t="s">
+      <c r="G28" s="121"/>
+      <c r="H28" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="92"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="79" t="s">
+      <c r="C29" s="98"/>
+      <c r="D29" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79" t="s">
+      <c r="E29" s="84"/>
+      <c r="F29" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="79"/>
-      <c r="H29" s="81" t="s">
+      <c r="G29" s="84"/>
+      <c r="H29" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="83"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="88"/>
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="74">
         <v>3</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="86" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79" t="s">
+      <c r="E30" s="84"/>
+      <c r="F30" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="80"/>
-      <c r="H30" s="81" t="s">
+      <c r="G30" s="85"/>
+      <c r="H30" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="83"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="88"/>
       <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="77">
+      <c r="A31" s="78">
         <v>4</v>
       </c>
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="86" t="s">
+      <c r="C31" s="98"/>
+      <c r="D31" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="85"/>
+      <c r="H31" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79" t="s">
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="77">
+        <v>5</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81" t="s">
+      <c r="G32" s="85"/>
+      <c r="H32" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="17"/>
-    </row>
-    <row r="32" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="78">
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="80">
+        <v>6</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="90"/>
+      <c r="D33" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="85"/>
+      <c r="H33" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="79">
+        <v>7</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="80"/>
-      <c r="H32" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="148" t="s">
+      <c r="B35" s="150"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A36" s="24">
+        <v>1</v>
+      </c>
+      <c r="B36" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="148"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="17"/>
-    </row>
-    <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
-        <v>1</v>
-      </c>
-      <c r="B34" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="17"/>
-    </row>
-    <row r="35" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
+      <c r="C36" s="132"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="24">
         <v>2</v>
       </c>
-      <c r="B35" s="127" t="s">
+      <c r="B37" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="17"/>
-    </row>
-    <row r="36" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
+      <c r="C37" s="132"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24">
         <v>3</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B38" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="17"/>
-    </row>
-    <row r="37" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
-        <v>4</v>
-      </c>
-      <c r="B37" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="128"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="17"/>
-    </row>
-    <row r="38" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="123"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
       <c r="H38" s="44"/>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
@@ -2329,189 +2357,194 @@
       <c r="P38" s="45"/>
       <c r="Q38" s="17"/>
     </row>
-    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
-        <v>1</v>
-      </c>
-      <c r="B39" s="159" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="159"/>
+    <row r="39" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>4</v>
+      </c>
+      <c r="B39" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="132"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="45"/>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="26">
+    <row r="40" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="127"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>1</v>
+      </c>
+      <c r="B41" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="161"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+    </row>
+    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A42" s="26">
         <v>2</v>
       </c>
-      <c r="B40" s="129" t="s">
+      <c r="B42" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="129"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="17"/>
-    </row>
-    <row r="41" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27">
+      <c r="C42" s="133"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="17"/>
+    </row>
+    <row r="43" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27">
         <v>3</v>
       </c>
-      <c r="B41" s="127" t="s">
+      <c r="B43" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="17"/>
-    </row>
-    <row r="42" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="C43" s="131"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="17"/>
+    </row>
+    <row r="44" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28">
         <v>4</v>
       </c>
-      <c r="B42" s="130" t="s">
+      <c r="B44" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="130"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="17"/>
-    </row>
-    <row r="43" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="123" t="s">
+      <c r="C44" s="134"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="17"/>
+    </row>
+    <row r="45" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="17"/>
-    </row>
-    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="17"/>
+    </row>
+    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="28">
         <v>1</v>
       </c>
-      <c r="B44" s="130" t="s">
+      <c r="B46" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="130"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-    </row>
-    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
+      <c r="C46" s="134"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+    </row>
+    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
         <v>2</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B47" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="130"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-    </row>
-    <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A46" s="29">
-        <v>3</v>
-      </c>
-      <c r="B46" s="127" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="128"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-    </row>
-    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
-        <v>4</v>
-      </c>
-      <c r="B47" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="85"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -2519,37 +2552,52 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A48" s="123" t="s">
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+    </row>
+    <row r="48" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A48" s="29">
+        <v>3</v>
+      </c>
+      <c r="B48" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="132"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>4</v>
+      </c>
+      <c r="B49" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="82"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A50" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="123"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-    </row>
-    <row r="50" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="128"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -2558,36 +2606,36 @@
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A51" s="123" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-    </row>
-    <row r="53" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A53" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -2596,36 +2644,36 @@
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A54" s="123" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="123"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-    </row>
-    <row r="55" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+    </row>
+    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-    </row>
-    <row r="56" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A56" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="127"/>
+      <c r="C56" s="127"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -2634,185 +2682,183 @@
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
     </row>
-    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A57" s="123" t="s">
+    <row r="57" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+      <c r="A59" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="123"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-    </row>
-    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A58" s="11">
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
         <v>1</v>
       </c>
-      <c r="B58" s="121" t="s">
+      <c r="B60" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="122"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-    </row>
-    <row r="59" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="13"/>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A60" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="123"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="13"/>
-      <c r="Q60" s="13"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="61" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="13"/>
       <c r="Q61" s="13"/>
     </row>
-    <row r="62" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="17"/>
-    </row>
-    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A63" s="123" t="s">
+    <row r="62" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A62" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="127"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="13"/>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" spans="1:17" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A65" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="123"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-    </row>
-    <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A64" s="29">
+      <c r="B65" s="127"/>
+      <c r="C65" s="128"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="29">
         <v>1</v>
       </c>
-      <c r="B64" s="154" t="s">
+      <c r="B66" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="155"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-    </row>
-    <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A65" s="30">
-        <v>2</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="17"/>
-    </row>
-    <row r="66" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A66" s="30">
-        <v>3</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A67" s="123" t="s">
+    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A67" s="30">
+        <v>2</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="31"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="17"/>
+    </row>
+    <row r="68" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
+        <v>3</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="31"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+    </row>
+    <row r="69" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A69" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="123"/>
-      <c r="C67" s="123"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-    </row>
-    <row r="68" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="17"/>
-    </row>
-    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="127"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -2822,42 +2868,38 @@
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
     </row>
-    <row r="70" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A70" s="123" t="s">
+    <row r="70" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="17"/>
+    </row>
+    <row r="71" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A72" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="123"/>
-      <c r="C70" s="123"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-    </row>
-    <row r="71" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A71" s="31">
-        <v>1</v>
-      </c>
-      <c r="B71" s="154" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="156"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="17"/>
-    </row>
-    <row r="72" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="B72" s="127"/>
+      <c r="C72" s="127"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
@@ -2867,97 +2909,132 @@
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A73" s="123" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="123"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
+    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A73" s="31">
+        <v>1</v>
+      </c>
+      <c r="B73" s="156" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="158"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
       <c r="K73" s="17"/>
     </row>
-    <row r="74" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-    </row>
-    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A76" s="123" t="s">
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+    </row>
+    <row r="75" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A75" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="127"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+    </row>
+    <row r="77" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A78" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="123"/>
-      <c r="C76" s="123"/>
-    </row>
-    <row r="79" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A79" s="123" t="s">
+      <c r="B78" s="127"/>
+      <c r="C78" s="127"/>
+    </row>
+    <row r="81" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="A81" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="123"/>
-      <c r="C79" s="124"/>
-    </row>
-    <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="B81" s="127"/>
+      <c r="C81" s="128"/>
+    </row>
+    <row r="82" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="148">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="H34:P34"/>
     <mergeCell ref="H2:J3"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A75:C75"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A62:C62"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A72:C72"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="H30:P30"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A27:C27"/>
@@ -2967,7 +3044,7 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D27:E27"/>
@@ -2976,9 +3053,9 @@
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -3000,32 +3077,32 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A69:C69"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H23:P23"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:P17"/>
@@ -3039,12 +3116,15 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H22:P22"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H31:P31"/>
     <mergeCell ref="B32:C32"/>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys1erious/Desktop/StudyProgramming/Git/algorithms/neetcode_150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D31A8F-8180-9D4C-93AD-B2093CA11A32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553D8BD-0609-2941-AD2F-2523D98B8401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
+    <workbookView xWindow="3560" yWindow="880" windowWidth="28040" windowHeight="17440" xr2:uid="{76CD3ECE-D592-4947-8368-191EE7B52C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Neetcode150" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
   <si>
     <t>Arrays and Hashing</t>
   </si>
@@ -352,13 +352,31 @@
   </si>
   <si>
     <t>sort pos, speed; for each car calculate left distance and left time to get to dest; then if cur car takes longer time to get to dest than the prev one, make prev=cur, increase car fleet</t>
+  </si>
+  <si>
+    <t>T: O(logn)</t>
+  </si>
+  <si>
+    <t>default binary search</t>
+  </si>
+  <si>
+    <t>treat matrix as normal array in bs; rp=m*n-1; get rowp as mp//n, colp as mp%n</t>
+  </si>
+  <si>
+    <t>T: O(log(nm))</t>
+  </si>
+  <si>
+    <t>T: O(log(max(p)n))</t>
+  </si>
+  <si>
+    <t>range of k is 1…max(p); use binary search on that range; check if cur_h &lt; h: make k=min(k, mp), rp=mp-1; if cur_h &gt; h: lp=mp+1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,6 +450,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -595,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -712,7 +740,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -795,22 +822,52 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -819,48 +876,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -870,6 +912,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -879,111 +1020,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,7 +1038,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,17 +1059,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1049,6 +1097,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1366,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B42D0-2FDD-8740-B5DE-63A10E0A48C3}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,54 +1431,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="140"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="142" t="s">
+      <c r="E1" s="146"/>
+      <c r="F1" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="142"/>
+      <c r="G1" s="147"/>
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="149" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="135" t="s">
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
@@ -1436,11 +1487,11 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1453,18 +1504,18 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="138" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138" t="s">
+      <c r="E5" s="136"/>
+      <c r="F5" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="136"/>
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1480,57 +1531,57 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="123" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="121"/>
-      <c r="F6" s="138" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="136" t="s">
+      <c r="G6" s="137"/>
+      <c r="H6" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
     </row>
     <row r="7" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="123" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="138" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="136" t="s">
+      <c r="G7" s="137"/>
+      <c r="H7" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
       <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1539,29 +1590,29 @@
       <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="155"/>
-      <c r="D8" s="123" t="s">
+      <c r="C8" s="161"/>
+      <c r="D8" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="121"/>
-      <c r="F8" s="138" t="s">
+      <c r="E8" s="122"/>
+      <c r="F8" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="139"/>
-      <c r="H8" s="86" t="s">
+      <c r="G8" s="137"/>
+      <c r="H8" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="89"/>
     </row>
     <row r="9" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
@@ -1571,53 +1622,53 @@
         <v>56</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="121"/>
-      <c r="F9" s="104" t="s">
+      <c r="E9" s="122"/>
+      <c r="F9" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="99" t="s">
+      <c r="G9" s="102"/>
+      <c r="H9" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="101"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="105"/>
     </row>
     <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="83" t="s">
+      <c r="C10" s="90"/>
+      <c r="D10" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84" t="s">
+      <c r="E10" s="93"/>
+      <c r="F10" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="100" t="s">
+      <c r="G10" s="102"/>
+      <c r="H10" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="105"/>
     </row>
     <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
@@ -1627,744 +1678,763 @@
         <v>60</v>
       </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102" t="s">
+      <c r="E11" s="139"/>
+      <c r="F11" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="103"/>
-      <c r="H11" s="100" t="s">
+      <c r="G11" s="140"/>
+      <c r="H11" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="101"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="105"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41">
         <v>8</v>
       </c>
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="160"/>
+      <c r="C12" s="166"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="114" t="s">
+      <c r="H12" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="117"/>
     </row>
     <row r="13" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
+      <c r="A13" s="46">
         <v>9</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="117" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118" t="s">
+      <c r="E13" s="119"/>
+      <c r="F13" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="119"/>
-      <c r="H13" s="111" t="s">
+      <c r="G13" s="120"/>
+      <c r="H13" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="114"/>
     </row>
     <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="67"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
+      <c r="A15" s="51">
         <v>1</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="109" t="s">
+      <c r="C15" s="128"/>
+      <c r="D15" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109" t="s">
+      <c r="E15" s="110"/>
+      <c r="F15" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="109"/>
-      <c r="H15" s="86" t="s">
+      <c r="G15" s="110"/>
+      <c r="H15" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="89"/>
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54">
+      <c r="A16" s="53">
         <v>2</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="108" t="s">
+      <c r="C16" s="128"/>
+      <c r="D16" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109" t="s">
+      <c r="E16" s="110"/>
+      <c r="F16" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="86" t="s">
+      <c r="G16" s="111"/>
+      <c r="H16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="89"/>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54">
+      <c r="A17" s="53">
         <v>3</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="108" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109" t="s">
+      <c r="E17" s="110"/>
+      <c r="F17" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="86" t="s">
+      <c r="G17" s="111"/>
+      <c r="H17" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54">
+      <c r="A18" s="53">
         <v>4</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="108" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109" t="s">
+      <c r="E18" s="110"/>
+      <c r="F18" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="86" t="s">
+      <c r="G18" s="111"/>
+      <c r="H18" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="89"/>
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53">
+      <c r="A19" s="52">
         <v>5</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="91" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="98"/>
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="73"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="72"/>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="57">
+      <c r="A21" s="56">
         <v>1</v>
       </c>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="83" t="s">
+      <c r="C21" s="128"/>
+      <c r="D21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84" t="s">
+      <c r="E21" s="93"/>
+      <c r="F21" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="85"/>
-      <c r="H21" s="99" t="s">
+      <c r="G21" s="102"/>
+      <c r="H21" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="101"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="105"/>
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59">
+      <c r="A22" s="58">
         <v>2</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="83" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84" t="s">
+      <c r="E22" s="93"/>
+      <c r="F22" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="85"/>
-      <c r="H22" s="99" t="s">
+      <c r="G22" s="102"/>
+      <c r="H22" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="105"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62">
+      <c r="A23" s="61">
         <v>3</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="83" t="s">
+      <c r="C23" s="91"/>
+      <c r="D23" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84" t="s">
+      <c r="E23" s="93"/>
+      <c r="F23" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="85"/>
-      <c r="H23" s="99" t="s">
+      <c r="G23" s="102"/>
+      <c r="H23" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="101"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="105"/>
       <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62">
+      <c r="A24" s="61">
         <v>4</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="83" t="s">
+      <c r="C24" s="91"/>
+      <c r="D24" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84" t="s">
+      <c r="E24" s="93"/>
+      <c r="F24" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="85"/>
-      <c r="H24" s="99" t="s">
+      <c r="G24" s="102"/>
+      <c r="H24" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="105"/>
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63">
+      <c r="A25" s="62">
         <v>5</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="91" t="s">
+      <c r="C25" s="95"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="98"/>
       <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61">
+      <c r="A26" s="60">
         <v>6</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="91" t="s">
+      <c r="C26" s="95"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="98"/>
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="146" t="s">
+      <c r="A27" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="146"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="67"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="66"/>
       <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76">
+      <c r="A28" s="75">
         <v>1</v>
       </c>
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="148"/>
-      <c r="D28" s="121" t="s">
+      <c r="C28" s="153"/>
+      <c r="D28" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121" t="s">
+      <c r="E28" s="122"/>
+      <c r="F28" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="121"/>
-      <c r="H28" s="94" t="s">
+      <c r="G28" s="122"/>
+      <c r="H28" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="101"/>
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="84" t="s">
+      <c r="C29" s="91"/>
+      <c r="D29" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84" t="s">
+      <c r="E29" s="93"/>
+      <c r="F29" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="86" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="89"/>
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74">
+      <c r="A30" s="73">
         <v>3</v>
       </c>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="83" t="s">
+      <c r="C30" s="91"/>
+      <c r="D30" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84" t="s">
+      <c r="E30" s="93"/>
+      <c r="F30" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="85"/>
-      <c r="H30" s="86" t="s">
+      <c r="G30" s="102"/>
+      <c r="H30" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="89"/>
       <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="78">
+      <c r="A31" s="76">
         <v>4</v>
       </c>
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="83" t="s">
+      <c r="C31" s="91"/>
+      <c r="D31" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84" t="s">
+      <c r="E31" s="93"/>
+      <c r="F31" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="85"/>
-      <c r="H31" s="86" t="s">
+      <c r="G31" s="102"/>
+      <c r="H31" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="89"/>
       <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="77">
         <v>5</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="83" t="s">
+      <c r="C32" s="91"/>
+      <c r="D32" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84" t="s">
+      <c r="E32" s="93"/>
+      <c r="F32" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86" t="s">
+      <c r="G32" s="102"/>
+      <c r="H32" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="89"/>
       <c r="Q32" s="17"/>
     </row>
     <row r="33" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="80">
+      <c r="A33" s="77">
         <v>6</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="83" t="s">
+      <c r="C33" s="91"/>
+      <c r="D33" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84" t="s">
+      <c r="E33" s="93"/>
+      <c r="F33" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="85"/>
-      <c r="H33" s="86" t="s">
+      <c r="G33" s="102"/>
+      <c r="H33" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="89"/>
       <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="79">
+      <c r="A34" s="54">
         <v>7</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="91" t="s">
+      <c r="C34" s="159"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="93"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="98"/>
       <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="150"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="45"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="72"/>
       <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" ht="26" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
+      <c r="A36" s="78">
         <v>1</v>
       </c>
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="46"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="110"/>
+      <c r="F36" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="83"/>
+      <c r="H36" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="81"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24">
+    <row r="37" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>2</v>
       </c>
-      <c r="B37" s="131" t="s">
+      <c r="B37" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="132"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="46"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="108"/>
+      <c r="H37" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="86"/>
       <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
         <v>3</v>
       </c>
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="45"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="108"/>
+      <c r="H38" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="168"/>
       <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>4</v>
       </c>
-      <c r="B39" s="131" t="s">
+      <c r="B39" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="132"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -2381,11 +2451,11 @@
       <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="127"/>
-      <c r="C40" s="128"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="83"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
@@ -2405,10 +2475,10 @@
       <c r="A41" s="25">
         <v>1</v>
       </c>
-      <c r="B41" s="161" t="s">
+      <c r="B41" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="161"/>
+      <c r="C41" s="167"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -2428,14 +2498,14 @@
       <c r="A42" s="26">
         <v>2</v>
       </c>
-      <c r="B42" s="133" t="s">
+      <c r="B42" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="133"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
       <c r="H42" s="39"/>
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
@@ -2451,14 +2521,14 @@
       <c r="A43" s="27">
         <v>3</v>
       </c>
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="131"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
       <c r="H43" s="38"/>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
@@ -2474,10 +2544,10 @@
       <c r="A44" s="28">
         <v>4</v>
       </c>
-      <c r="B44" s="134" t="s">
+      <c r="B44" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="134"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
@@ -2494,11 +2564,11 @@
       <c r="Q44" s="17"/>
     </row>
     <row r="45" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
@@ -2518,10 +2588,10 @@
       <c r="A46" s="28">
         <v>1</v>
       </c>
-      <c r="B46" s="134" t="s">
+      <c r="B46" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="134"/>
+      <c r="C46" s="132"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2541,10 +2611,10 @@
       <c r="A47" s="27">
         <v>2</v>
       </c>
-      <c r="B47" s="134" t="s">
+      <c r="B47" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="134"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -2564,10 +2634,10 @@
       <c r="A48" s="29">
         <v>3</v>
       </c>
-      <c r="B48" s="131" t="s">
+      <c r="B48" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="132"/>
+      <c r="C48" s="130"/>
       <c r="D48" s="18"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
@@ -2580,10 +2650,10 @@
       <c r="A49" s="16">
         <v>4</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="82"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -2593,11 +2663,11 @@
       <c r="J49" s="17"/>
     </row>
     <row r="50" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="128"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="83"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -2631,11 +2701,11 @@
       <c r="J52" s="17"/>
     </row>
     <row r="53" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A53" s="127" t="s">
+      <c r="A53" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -2669,11 +2739,11 @@
       <c r="J55" s="17"/>
     </row>
     <row r="56" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A56" s="127" t="s">
+      <c r="A56" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -2707,11 +2777,11 @@
       <c r="J58" s="17"/>
     </row>
     <row r="59" spans="1:17" ht="26" x14ac:dyDescent="0.25">
-      <c r="A59" s="127" t="s">
+      <c r="A59" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="127"/>
-      <c r="C59" s="127"/>
+      <c r="B59" s="126"/>
+      <c r="C59" s="126"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -2724,10 +2794,10 @@
       <c r="A60" s="11">
         <v>1</v>
       </c>
-      <c r="B60" s="125" t="s">
+      <c r="B60" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="126"/>
+      <c r="C60" s="125"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
@@ -2740,23 +2810,23 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="106"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="107"/>
       <c r="H61" s="13"/>
       <c r="Q61" s="13"/>
     </row>
     <row r="62" spans="1:17" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A62" s="127" t="s">
+      <c r="A62" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="127"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="120"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="106"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="107"/>
       <c r="H62" s="13"/>
       <c r="Q62" s="13"/>
     </row>
@@ -2788,11 +2858,11 @@
       <c r="K64" s="17"/>
     </row>
     <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.25">
-      <c r="A65" s="127" t="s">
+      <c r="A65" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="127"/>
-      <c r="C65" s="128"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="83"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -2806,10 +2876,10 @@
       <c r="A66" s="29">
         <v>1</v>
       </c>
-      <c r="B66" s="156" t="s">
+      <c r="B66" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="157"/>
+      <c r="C66" s="163"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -2854,11 +2924,11 @@
       <c r="K68" s="17"/>
     </row>
     <row r="69" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A69" s="127" t="s">
+      <c r="A69" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="127"/>
-      <c r="C69" s="127"/>
+      <c r="B69" s="126"/>
+      <c r="C69" s="126"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -2895,11 +2965,11 @@
       <c r="K71" s="17"/>
     </row>
     <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A72" s="127" t="s">
+      <c r="A72" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B72" s="127"/>
-      <c r="C72" s="127"/>
+      <c r="B72" s="126"/>
+      <c r="C72" s="126"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
@@ -2913,10 +2983,10 @@
       <c r="A73" s="31">
         <v>1</v>
       </c>
-      <c r="B73" s="156" t="s">
+      <c r="B73" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="158"/>
+      <c r="C73" s="164"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
@@ -2940,11 +3010,11 @@
       <c r="K74" s="17"/>
     </row>
     <row r="75" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A75" s="127" t="s">
+      <c r="A75" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
@@ -2972,18 +3042,18 @@
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A78" s="127" t="s">
+      <c r="A78" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="127"/>
-      <c r="C78" s="127"/>
+      <c r="B78" s="126"/>
+      <c r="C78" s="126"/>
     </row>
     <row r="81" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A81" s="127" t="s">
+      <c r="A81" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="127"/>
-      <c r="C81" s="128"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="83"/>
     </row>
     <row r="82" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
@@ -2996,11 +3066,7 @@
       <c r="C83" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="148">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H33:P33"/>
+  <mergeCells count="153">
     <mergeCell ref="H34:P34"/>
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="A81:C81"/>
@@ -3021,11 +3087,7 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="A72:C72"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H30:P30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H38:P38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3045,6 +3107,9 @@
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D27:E27"/>
@@ -3056,6 +3121,10 @@
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -3077,6 +3146,8 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A69:C69"/>
@@ -3098,9 +3169,9 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D17:E17"/>
@@ -3122,10 +3193,12 @@
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H30:P30"/>
+    <mergeCell ref="H36:P36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H37:P37"/>
     <mergeCell ref="H31:P31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="H18:P18"/>
@@ -3145,6 +3218,8 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:P32"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="H33:P33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neetcode_150/neetcode150_fast_reviews.xlsx
+++ b/neetcode_150/neetcode150_fast_reviews.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
   <si>
     <t xml:space="preserve">Only revise</t>
   </si>
@@ -307,7 +307,19 @@
     <t xml:space="preserve">Reverse Linked List</t>
   </si>
   <si>
+    <t xml:space="preserve">maintain next variable as cur.next; assing cur.next to prev; move prev, cur pointers to its next val</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merge 2 linked lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T: O(min(m, n))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M: P(m+n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init merged with dummy node and init a tail for merged; while list1 and list2, add lowest val to merged from cur list1, list2 values; then if list1 or list2 is still not empty, add it to the end of the tail</t>
   </si>
   <si>
     <t xml:space="preserve">Reorder linked list</t>
@@ -949,32 +961,32 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1100,8 +1112,8 @@
   </sheetPr>
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2244,100 +2256,112 @@
       <c r="Q43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="36.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="77" t="n">
+      <c r="A44" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
       <c r="Q44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="36.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="79" t="n">
+      <c r="A45" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="B45" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="17"/>
+      <c r="B45" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="F45" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="G45" s="17"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
+      <c r="H45" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
       <c r="Q45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="36.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="79" t="n">
+      <c r="A46" s="78" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="79"/>
+      <c r="B46" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="78"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
       <c r="Q46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="36.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="77" t="n">
+      <c r="A47" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="B47" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="77"/>
+      <c r="B47" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="81"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
       <c r="Q47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2345,28 +2369,28 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
       <c r="Q48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="77" t="n">
+      <c r="A49" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="B49" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="77"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
+      <c r="B49" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="81"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -2380,16 +2404,16 @@
       <c r="Q49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="79" t="n">
+      <c r="A50" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="B50" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
+      <c r="B50" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="81"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -2407,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C51" s="85"/>
       <c r="D51" s="34"/>
@@ -2423,12 +2447,12 @@
         <v>4</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C52" s="59"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -2436,13 +2460,13 @@
     </row>
     <row r="53" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="42" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -2464,9 +2488,9 @@
       <c r="A55" s="87"/>
       <c r="B55" s="87"/>
       <c r="C55" s="87"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -2474,13 +2498,13 @@
     </row>
     <row r="56" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -2502,9 +2526,9 @@
       <c r="A58" s="87"/>
       <c r="B58" s="87"/>
       <c r="C58" s="87"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -2512,13 +2536,13 @@
     </row>
     <row r="59" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -2540,9 +2564,9 @@
       <c r="A61" s="87"/>
       <c r="B61" s="87"/>
       <c r="C61" s="87"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -2550,13 +2574,13 @@
     </row>
     <row r="62" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -2567,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C63" s="48"/>
       <c r="D63" s="35"/>
@@ -2591,7 +2615,7 @@
     </row>
     <row r="65" s="1" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2631,13 +2655,13 @@
     </row>
     <row r="68" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="42" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -2649,12 +2673,12 @@
         <v>1</v>
       </c>
       <c r="B69" s="91" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C69" s="91"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -2666,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C70" s="93"/>
       <c r="D70" s="35"/>
@@ -2683,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C71" s="93"/>
       <c r="D71" s="7"/>
@@ -2697,7 +2721,7 @@
     </row>
     <row r="72" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -2738,7 +2762,7 @@
     </row>
     <row r="75" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -2756,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="94" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C76" s="94"/>
       <c r="D76" s="35"/>
@@ -2783,7 +2807,7 @@
     </row>
     <row r="78" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -2815,14 +2839,14 @@
     </row>
     <row r="81" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B84" s="42"/>
       <c r="C84" s="42"/>
@@ -2838,7 +2862,7 @@
       <c r="C86" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
+  <mergeCells count="170">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -2975,9 +2999,13 @@
     <mergeCell ref="H42:P42"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:P44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:P45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
